--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362257.067306459</v>
+        <v>361548.1731509242</v>
       </c>
     </row>
     <row r="7">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.5102350969347</v>
       </c>
       <c r="E11" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="F11" t="n">
-        <v>118.9542797999009</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.805278148539411</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.1660114393008</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.42286770451921</v>
       </c>
       <c r="U11" t="n">
-        <v>71.33901554432776</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>170.4356193428909</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>190.7671014735056</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>44.62455473059315</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.32009000103541</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T12" t="n">
-        <v>197.1896438262193</v>
+        <v>17.09514616855554</v>
       </c>
       <c r="U12" t="n">
-        <v>44.543208983824</v>
+        <v>44.54320898382394</v>
       </c>
       <c r="V12" t="n">
-        <v>51.81423338199144</v>
+        <v>51.81423338199139</v>
       </c>
       <c r="W12" t="n">
-        <v>196.1549350020027</v>
+        <v>69.8948490923363</v>
       </c>
       <c r="X12" t="n">
-        <v>24.36713195081458</v>
+        <v>24.36713195081452</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.57665376092234</v>
+        <v>23.57665376092228</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>37.93894269628098</v>
+        <v>37.93894269628092</v>
       </c>
       <c r="T13" t="n">
-        <v>47.17784089226099</v>
+        <v>47.17784089226093</v>
       </c>
       <c r="U13" t="n">
-        <v>105.9442391915931</v>
+        <v>105.944239191593</v>
       </c>
       <c r="V13" t="n">
-        <v>72.84185340927547</v>
+        <v>72.84185340927542</v>
       </c>
       <c r="W13" t="n">
-        <v>105.9980792297519</v>
+        <v>105.9980792297518</v>
       </c>
       <c r="X13" t="n">
-        <v>46.04586227464557</v>
+        <v>46.04586227464551</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.65417621010454</v>
+        <v>38.65417621010448</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>163.7152837145617</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>186.8905980212789</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.1660114393008</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>30.42579455838169</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.4356193428908</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>190.7671014735056</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51.30664639883908</v>
+        <v>38.31933294107863</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>17.0951461685556</v>
+        <v>17.09514616855554</v>
       </c>
       <c r="U15" t="n">
-        <v>44.543208983824</v>
+        <v>44.54320898382394</v>
       </c>
       <c r="V15" t="n">
-        <v>51.81423338199144</v>
+        <v>51.81423338199139</v>
       </c>
       <c r="W15" t="n">
-        <v>69.89484909233636</v>
+        <v>69.8948490923363</v>
       </c>
       <c r="X15" t="n">
-        <v>24.36713195081458</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.93894269628098</v>
+        <v>37.93894269628092</v>
       </c>
       <c r="T16" t="n">
-        <v>47.17784089226099</v>
+        <v>47.17784089226093</v>
       </c>
       <c r="U16" t="n">
-        <v>105.9442391915931</v>
+        <v>105.944239191593</v>
       </c>
       <c r="V16" t="n">
-        <v>72.84185340927547</v>
+        <v>72.84185340927542</v>
       </c>
       <c r="W16" t="n">
-        <v>105.9980792297519</v>
+        <v>105.9980792297518</v>
       </c>
       <c r="X16" t="n">
-        <v>46.04586227464557</v>
+        <v>46.04586227464551</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.65417621010454</v>
+        <v>38.65417621010448</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.55523505464259</v>
+        <v>83.55523505464254</v>
       </c>
       <c r="C17" t="n">
-        <v>66.82392074219018</v>
+        <v>66.82392074219013</v>
       </c>
       <c r="D17" t="n">
-        <v>56.44355781784564</v>
+        <v>56.44355781784589</v>
       </c>
       <c r="E17" t="n">
-        <v>82.95686081853501</v>
+        <v>82.95686081853495</v>
       </c>
       <c r="F17" t="n">
-        <v>107.1326885437884</v>
+        <v>107.1326885437883</v>
       </c>
       <c r="G17" t="n">
-        <v>114.1404607851663</v>
+        <v>114.1404607851662</v>
       </c>
       <c r="H17" t="n">
-        <v>32.31798909651741</v>
+        <v>32.31798909651734</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>28.3720465857669</v>
+        <v>28.37204658576684</v>
       </c>
       <c r="W17" t="n">
-        <v>50.36894206380214</v>
+        <v>50.3689420638016</v>
       </c>
       <c r="X17" t="n">
-        <v>70.70042419441694</v>
+        <v>70.70042419441688</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.52589681448336</v>
+        <v>86.5258968144833</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I18" t="n">
-        <v>76.31402067538703</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>197.1896438262193</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3106298458036</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.3498088305579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>159.4281046943037</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>58.98445761112274</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.18990669362403</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>108.15119758691</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.55523505464259</v>
+        <v>83.55523505464254</v>
       </c>
       <c r="C20" t="n">
-        <v>66.82392074219018</v>
+        <v>66.82392074219013</v>
       </c>
       <c r="D20" t="n">
-        <v>56.44355781784594</v>
+        <v>56.44355781784589</v>
       </c>
       <c r="E20" t="n">
-        <v>82.95686081853501</v>
+        <v>82.95686081853495</v>
       </c>
       <c r="F20" t="n">
-        <v>107.1326885437884</v>
+        <v>107.1326885437883</v>
       </c>
       <c r="G20" t="n">
-        <v>114.1404607851663</v>
+        <v>114.1404607851662</v>
       </c>
       <c r="H20" t="n">
-        <v>32.31798909651741</v>
+        <v>32.31798909651735</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>28.3720465857669</v>
+        <v>28.37204658576684</v>
       </c>
       <c r="W20" t="n">
-        <v>50.36894206380214</v>
+        <v>50.36894206380208</v>
       </c>
       <c r="X20" t="n">
-        <v>70.70042419441694</v>
+        <v>70.70042419441688</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.52589681448336</v>
+        <v>86.5258968144833</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>200.8189091210974</v>
+        <v>181.051822475363</v>
       </c>
       <c r="X21" t="n">
-        <v>165.6589238653762</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>95.83853604300037</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.29711915503226</v>
+        <v>71.29711915503225</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>150.4984237542933</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.55523505464259</v>
+        <v>83.55523505464254</v>
       </c>
       <c r="C23" t="n">
-        <v>66.82392074219018</v>
+        <v>66.82392074219013</v>
       </c>
       <c r="D23" t="n">
-        <v>56.44355781784594</v>
+        <v>56.44355781784589</v>
       </c>
       <c r="E23" t="n">
-        <v>82.95686081853501</v>
+        <v>82.95686081853495</v>
       </c>
       <c r="F23" t="n">
-        <v>107.1326885437884</v>
+        <v>107.1326885437883</v>
       </c>
       <c r="G23" t="n">
-        <v>114.1404607851663</v>
+        <v>114.1404607851662</v>
       </c>
       <c r="H23" t="n">
-        <v>32.31798909651741</v>
+        <v>32.31798909651735</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>28.3720465857669</v>
+        <v>28.37204658576684</v>
       </c>
       <c r="W23" t="n">
-        <v>50.36894206380214</v>
+        <v>50.36894206380208</v>
       </c>
       <c r="X23" t="n">
-        <v>70.70042419441694</v>
+        <v>70.70042419441688</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.52589681448336</v>
+        <v>86.5258968144833</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>98.46671245721424</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>200.8189091210975</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>200.8189091210975</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>140.7944556975891</v>
       </c>
     </row>
     <row r="25">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>25.63587478859895</v>
+        <v>38.38301334808046</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>226.3045036358392</v>
       </c>
       <c r="D26" t="n">
-        <v>215.924140711495</v>
+        <v>215.9241407114949</v>
       </c>
       <c r="E26" t="n">
         <v>242.437443712184</v>
       </c>
       <c r="F26" t="n">
-        <v>266.6132714374374</v>
+        <v>266.6132714374373</v>
       </c>
       <c r="G26" t="n">
-        <v>273.6210436788153</v>
+        <v>273.6210436788152</v>
       </c>
       <c r="H26" t="n">
         <v>191.7985719901664</v>
       </c>
       <c r="I26" t="n">
-        <v>43.21918376309966</v>
+        <v>43.21918376309961</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.57991705386107</v>
+        <v>52.57991705386101</v>
       </c>
       <c r="T26" t="n">
-        <v>79.86319997074618</v>
+        <v>79.86319997074614</v>
       </c>
       <c r="U26" t="n">
         <v>110.752921158888</v>
@@ -2615,13 +2615,13 @@
         <v>187.8526294794159</v>
       </c>
       <c r="W26" t="n">
-        <v>209.8495249574512</v>
+        <v>209.8495249574511</v>
       </c>
       <c r="X26" t="n">
-        <v>230.181007088066</v>
+        <v>230.1810070880659</v>
       </c>
       <c r="Y26" t="n">
-        <v>246.0064797081324</v>
+        <v>246.0064797081323</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>24.69153356724135</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2640,13 +2640,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>15.35284166407041</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3519529283237</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.6042570273855</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.32009000103541</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.4644637125223</v>
+        <v>85.99635020632233</v>
       </c>
       <c r="T27" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U27" t="n">
-        <v>83.95711459838427</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>109.3087547068966</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>63.78103756537485</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>62.99055937548255</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.40309944758039</v>
+        <v>39.40309944758033</v>
       </c>
       <c r="C28" t="n">
-        <v>26.65596088809892</v>
+        <v>26.65596088809886</v>
       </c>
       <c r="D28" t="n">
-        <v>8.324974471415942</v>
+        <v>8.324974471415885</v>
       </c>
       <c r="E28" t="n">
-        <v>6.294032130095758</v>
+        <v>6.294032130095701</v>
       </c>
       <c r="F28" t="n">
-        <v>5.478429366701079</v>
+        <v>5.478429366701022</v>
       </c>
       <c r="G28" t="n">
-        <v>26.9608819538682</v>
+        <v>26.96088195386814</v>
       </c>
       <c r="H28" t="n">
-        <v>18.74751265120029</v>
+        <v>18.74751265120023</v>
       </c>
       <c r="I28" t="n">
-        <v>5.616462037796926</v>
+        <v>5.616462037796867</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.55440599674381</v>
+        <v>21.55440599674375</v>
       </c>
       <c r="S28" t="n">
-        <v>77.35284831084124</v>
+        <v>77.35284831084118</v>
       </c>
       <c r="T28" t="n">
-        <v>86.59174650682125</v>
+        <v>86.5917465068212</v>
       </c>
       <c r="U28" t="n">
         <v>145.3581448061533</v>
@@ -2776,10 +2776,10 @@
         <v>145.4119848443121</v>
       </c>
       <c r="X28" t="n">
-        <v>85.45976788920584</v>
+        <v>85.45976788920578</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.0680818246648</v>
+        <v>78.06808182466474</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>226.3045036358392</v>
       </c>
       <c r="D29" t="n">
-        <v>215.924140711495</v>
+        <v>215.9241407114949</v>
       </c>
       <c r="E29" t="n">
         <v>242.437443712184</v>
       </c>
       <c r="F29" t="n">
-        <v>266.6132714374374</v>
+        <v>266.6132714374373</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6210436788153</v>
+        <v>273.6210436788152</v>
       </c>
       <c r="H29" t="n">
         <v>191.7985719901664</v>
       </c>
       <c r="I29" t="n">
-        <v>43.21918376309966</v>
+        <v>43.21918376309961</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.57991705386107</v>
+        <v>52.57991705386101</v>
       </c>
       <c r="T29" t="n">
-        <v>79.86319997074618</v>
+        <v>79.86319997074614</v>
       </c>
       <c r="U29" t="n">
         <v>110.752921158888</v>
@@ -2852,13 +2852,13 @@
         <v>187.8526294794159</v>
       </c>
       <c r="W29" t="n">
-        <v>209.8495249574512</v>
+        <v>209.8495249574511</v>
       </c>
       <c r="X29" t="n">
-        <v>230.181007088066</v>
+        <v>230.1810070880659</v>
       </c>
       <c r="Y29" t="n">
-        <v>246.0064797081324</v>
+        <v>246.0064797081323</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24.69153356724141</v>
+        <v>24.69153356724135</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2880,16 +2880,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>135.3519529283236</v>
+        <v>2.825640040445819</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I30" t="n">
-        <v>76.31402067538703</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.32009000103541</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T30" t="n">
-        <v>56.50905178311586</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6377066414877</v>
+        <v>223.4836138106746</v>
       </c>
       <c r="V30" t="n">
-        <v>91.22813899655171</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>63.78103756537485</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.40309944758039</v>
+        <v>39.40309944758033</v>
       </c>
       <c r="C31" t="n">
-        <v>26.65596088809892</v>
+        <v>26.65596088809886</v>
       </c>
       <c r="D31" t="n">
-        <v>8.324974471415942</v>
+        <v>8.324974471415885</v>
       </c>
       <c r="E31" t="n">
-        <v>6.294032130095758</v>
+        <v>6.294032130095701</v>
       </c>
       <c r="F31" t="n">
-        <v>5.478429366701079</v>
+        <v>5.478429366701022</v>
       </c>
       <c r="G31" t="n">
-        <v>26.9608819538682</v>
+        <v>26.96088195386814</v>
       </c>
       <c r="H31" t="n">
-        <v>18.74751265120029</v>
+        <v>18.74751265120023</v>
       </c>
       <c r="I31" t="n">
-        <v>5.616462037796926</v>
+        <v>5.616462037796867</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.55440599674381</v>
+        <v>21.55440599674375</v>
       </c>
       <c r="S31" t="n">
-        <v>77.35284831084124</v>
+        <v>77.35284831084118</v>
       </c>
       <c r="T31" t="n">
-        <v>86.59174650682125</v>
+        <v>86.5917465068212</v>
       </c>
       <c r="U31" t="n">
         <v>145.3581448061533</v>
@@ -3013,10 +3013,10 @@
         <v>145.4119848443121</v>
       </c>
       <c r="X31" t="n">
-        <v>85.45976788920584</v>
+        <v>85.45976788920578</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.0680818246648</v>
+        <v>78.06808182466474</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.0358179482916</v>
+        <v>243.0358179482917</v>
       </c>
       <c r="C32" t="n">
-        <v>226.3045036358392</v>
+        <v>226.3045036358393</v>
       </c>
       <c r="D32" t="n">
         <v>215.924140711495</v>
       </c>
       <c r="E32" t="n">
-        <v>242.437443712184</v>
+        <v>242.4374437121841</v>
       </c>
       <c r="F32" t="n">
         <v>266.6132714374374</v>
@@ -3044,10 +3044,10 @@
         <v>273.6210436788153</v>
       </c>
       <c r="H32" t="n">
-        <v>191.7985719901664</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I32" t="n">
-        <v>43.21918376309966</v>
+        <v>43.21918376309972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.57991705386107</v>
+        <v>52.57991705386112</v>
       </c>
       <c r="T32" t="n">
-        <v>79.86319997074619</v>
+        <v>79.86319997074625</v>
       </c>
       <c r="U32" t="n">
-        <v>110.752921158888</v>
+        <v>110.7529211588881</v>
       </c>
       <c r="V32" t="n">
-        <v>187.8526294794159</v>
+        <v>187.852629479416</v>
       </c>
       <c r="W32" t="n">
         <v>209.8495249574512</v>
@@ -3114,16 +3114,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>15.35284166407041</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>2.825640040445876</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I33" t="n">
         <v>76.31402067538703</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.32009000103541</v>
+        <v>68.16581084581009</v>
       </c>
       <c r="S33" t="n">
-        <v>163.4644637125223</v>
+        <v>22.78387166941894</v>
       </c>
       <c r="T33" t="n">
-        <v>197.1896438262193</v>
+        <v>56.50905178311591</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6377066414877</v>
+        <v>83.95711459838432</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>91.22813899655176</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3174,7 +3174,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.4872049387357</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.40309944758039</v>
+        <v>39.40309944758044</v>
       </c>
       <c r="C34" t="n">
-        <v>26.65596088809892</v>
+        <v>26.65596088809897</v>
       </c>
       <c r="D34" t="n">
-        <v>8.324974471415942</v>
+        <v>8.324974471415999</v>
       </c>
       <c r="E34" t="n">
-        <v>6.294032130095758</v>
+        <v>6.294032130095815</v>
       </c>
       <c r="F34" t="n">
-        <v>5.478429366701079</v>
+        <v>5.478429366701135</v>
       </c>
       <c r="G34" t="n">
-        <v>26.9608819538682</v>
+        <v>26.96088195386826</v>
       </c>
       <c r="H34" t="n">
-        <v>18.74751265120029</v>
+        <v>18.74751265120035</v>
       </c>
       <c r="I34" t="n">
-        <v>5.616462037796926</v>
+        <v>5.616462037796981</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.55440599674381</v>
+        <v>21.55440599674387</v>
       </c>
       <c r="S34" t="n">
-        <v>77.35284831084124</v>
+        <v>77.3528483108413</v>
       </c>
       <c r="T34" t="n">
-        <v>86.59174650682125</v>
+        <v>86.59174650682131</v>
       </c>
       <c r="U34" t="n">
-        <v>145.3581448061533</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2557590238357</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W34" t="n">
-        <v>145.4119848443121</v>
+        <v>145.4119848443122</v>
       </c>
       <c r="X34" t="n">
-        <v>85.45976788920584</v>
+        <v>85.45976788920589</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.0680818246648</v>
+        <v>78.06808182466486</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3354,16 +3354,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.4644637125223</v>
+        <v>147.8331070355111</v>
       </c>
       <c r="T36" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6377066414877</v>
+        <v>31.37719754452317</v>
       </c>
       <c r="V36" t="n">
-        <v>104.2959978512843</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.515650490323708</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.77293125698014</v>
+        <v>30.28858174730385</v>
       </c>
       <c r="T37" t="n">
         <v>34.01182945296016</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>190.4559008944305</v>
+        <v>190.4559008944306</v>
       </c>
       <c r="C38" t="n">
-        <v>173.7245865819781</v>
+        <v>173.7245865819782</v>
       </c>
       <c r="D38" t="n">
-        <v>163.3442236576339</v>
+        <v>163.344223657634</v>
       </c>
       <c r="E38" t="n">
-        <v>189.8575266583229</v>
+        <v>189.857526658323</v>
       </c>
       <c r="F38" t="n">
-        <v>214.0333543835763</v>
+        <v>214.0333543835764</v>
       </c>
       <c r="G38" t="n">
-        <v>221.0411266249542</v>
+        <v>221.0411266249543</v>
       </c>
       <c r="H38" t="n">
-        <v>139.2186549363053</v>
+        <v>139.2186549363054</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.2832829168851</v>
+        <v>27.28328291688518</v>
       </c>
       <c r="U38" t="n">
-        <v>58.17300410502693</v>
+        <v>58.17300410502702</v>
       </c>
       <c r="V38" t="n">
-        <v>135.2727124255548</v>
+        <v>135.2727124255549</v>
       </c>
       <c r="W38" t="n">
-        <v>157.2696079035901</v>
+        <v>157.2696079035902</v>
       </c>
       <c r="X38" t="n">
-        <v>177.6010900342049</v>
+        <v>177.601090034205</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.4265626542713</v>
+        <v>193.4265626542714</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I39" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>32.44987765877223</v>
       </c>
       <c r="T39" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6377066414877</v>
+        <v>31.37719754452325</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>56.72883765303553</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>91.26589075028923</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.515650490323708</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.77293125698014</v>
+        <v>30.28858174730329</v>
       </c>
       <c r="T40" t="n">
-        <v>34.01182945296016</v>
+        <v>34.01182945296024</v>
       </c>
       <c r="U40" t="n">
-        <v>92.77822775229225</v>
+        <v>92.77822775229234</v>
       </c>
       <c r="V40" t="n">
-        <v>59.67584196997464</v>
+        <v>59.67584196997473</v>
       </c>
       <c r="W40" t="n">
-        <v>92.83206779045102</v>
+        <v>92.83206779045111</v>
       </c>
       <c r="X40" t="n">
-        <v>32.87985083534474</v>
+        <v>32.87985083534483</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.48816477080371</v>
+        <v>25.48816477080379</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>190.4559008944306</v>
       </c>
       <c r="C41" t="n">
-        <v>173.7245865819781</v>
+        <v>173.7245865819782</v>
       </c>
       <c r="D41" t="n">
         <v>163.3442236576339</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>27.28328291688511</v>
+        <v>27.28328291688514</v>
       </c>
       <c r="U41" t="n">
-        <v>58.17300410502695</v>
+        <v>58.17300410502698</v>
       </c>
       <c r="V41" t="n">
         <v>135.2727124255549</v>
@@ -3806,7 +3806,7 @@
         <v>177.6010900342049</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.4265626542713</v>
+        <v>193.4265626542714</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>103.9213232356623</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.31402067538701</v>
+        <v>56.30301467977418</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S42" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T42" t="n">
-        <v>197.1896438262193</v>
+        <v>3.92913472925482</v>
       </c>
       <c r="U42" t="n">
-        <v>31.3771975445232</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,7 +3882,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>11.20112051151378</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.77293125698017</v>
+        <v>24.7729312569802</v>
       </c>
       <c r="T43" t="n">
-        <v>39.52747994328357</v>
+        <v>34.01182945296021</v>
       </c>
       <c r="U43" t="n">
-        <v>92.77822775229228</v>
+        <v>92.77822775229231</v>
       </c>
       <c r="V43" t="n">
-        <v>59.67584196997467</v>
+        <v>59.6758419699747</v>
       </c>
       <c r="W43" t="n">
-        <v>92.83206779045105</v>
+        <v>92.83206779045108</v>
       </c>
       <c r="X43" t="n">
-        <v>32.87985083534477</v>
+        <v>32.8798508353448</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.48816477080373</v>
+        <v>31.00381526112705</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>190.4559008944306</v>
       </c>
       <c r="C44" t="n">
-        <v>173.7245865819781</v>
+        <v>173.7245865819782</v>
       </c>
       <c r="D44" t="n">
         <v>163.3442236576339</v>
       </c>
       <c r="E44" t="n">
-        <v>189.8575266583234</v>
+        <v>189.857526658323</v>
       </c>
       <c r="F44" t="n">
         <v>214.0333543835764</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>27.28328291688512</v>
+        <v>27.28328291688514</v>
       </c>
       <c r="U44" t="n">
-        <v>58.17300410502695</v>
+        <v>58.17300410502699</v>
       </c>
       <c r="V44" t="n">
         <v>135.2727124255549</v>
@@ -4043,7 +4043,7 @@
         <v>177.6010900342049</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.4265626542713</v>
+        <v>193.4265626542709</v>
       </c>
     </row>
     <row r="45">
@@ -4062,16 +4062,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.6042570273855</v>
+        <v>56.30908400542253</v>
       </c>
       <c r="I45" t="n">
         <v>76.31402067538701</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.3200900010354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T45" t="n">
-        <v>57.04717917959641</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6377066414877</v>
+        <v>31.37719754452322</v>
       </c>
       <c r="V45" t="n">
-        <v>38.64822194269064</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.515650490323314</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.77293125698017</v>
+        <v>24.7729312569802</v>
       </c>
       <c r="T46" t="n">
-        <v>34.01182945296019</v>
+        <v>39.52747994328352</v>
       </c>
       <c r="U46" t="n">
-        <v>92.77822775229228</v>
+        <v>92.77822775229231</v>
       </c>
       <c r="V46" t="n">
-        <v>59.67584196997467</v>
+        <v>59.6758419699747</v>
       </c>
       <c r="W46" t="n">
-        <v>92.83206779045105</v>
+        <v>92.83206779045108</v>
       </c>
       <c r="X46" t="n">
-        <v>32.87985083534477</v>
+        <v>32.8798508353448</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.48816477080373</v>
+        <v>25.48816477080376</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>342.9124491635644</v>
+        <v>600.053445395475</v>
       </c>
       <c r="C11" t="n">
-        <v>342.9124491635644</v>
+        <v>600.053445395475</v>
       </c>
       <c r="D11" t="n">
-        <v>342.9124491635644</v>
+        <v>421.7602786308944</v>
       </c>
       <c r="E11" t="n">
-        <v>140.0650662129608</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="F11" t="n">
-        <v>19.90922803124275</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="G11" t="n">
-        <v>19.90922803124275</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H11" t="n">
-        <v>19.90922803124275</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I11" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J11" t="n">
         <v>61.88955680326644</v>
       </c>
       <c r="K11" t="n">
-        <v>252.8445129431565</v>
+        <v>252.8445129431566</v>
       </c>
       <c r="L11" t="n">
-        <v>451.6552329730429</v>
+        <v>252.8445129431566</v>
       </c>
       <c r="M11" t="n">
-        <v>451.6552329730429</v>
+        <v>417.593283399549</v>
       </c>
       <c r="N11" t="n">
-        <v>604.4649164545031</v>
+        <v>616.4040034294353</v>
       </c>
       <c r="O11" t="n">
-        <v>803.2756364843895</v>
+        <v>616.4040034294353</v>
       </c>
       <c r="P11" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="Q11" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R11" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S11" t="n">
-        <v>789.9766350305504</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T11" t="n">
-        <v>789.9766350305504</v>
+        <v>792.747487287905</v>
       </c>
       <c r="U11" t="n">
-        <v>717.9170233696132</v>
+        <v>792.747487287905</v>
       </c>
       <c r="V11" t="n">
-        <v>717.9170233696132</v>
+        <v>792.747487287905</v>
       </c>
       <c r="W11" t="n">
-        <v>545.7598321141678</v>
+        <v>792.747487287905</v>
       </c>
       <c r="X11" t="n">
-        <v>545.7598321141678</v>
+        <v>600.053445395475</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.9124491635644</v>
+        <v>600.053445395475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.06551272968779</v>
+        <v>327.4415182500438</v>
       </c>
       <c r="C12" t="n">
-        <v>16.06551272968779</v>
+        <v>327.4415182500438</v>
       </c>
       <c r="D12" t="n">
-        <v>16.06551272968779</v>
+        <v>327.4415182500438</v>
       </c>
       <c r="E12" t="n">
-        <v>16.06551272968779</v>
+        <v>169.8319892528985</v>
       </c>
       <c r="F12" t="n">
-        <v>16.06551272968779</v>
+        <v>169.8319892528985</v>
       </c>
       <c r="G12" t="n">
-        <v>16.06551272968779</v>
+        <v>169.8319892528985</v>
       </c>
       <c r="H12" t="n">
-        <v>16.06551272968779</v>
+        <v>61.14082053836773</v>
       </c>
       <c r="I12" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.14004463566326</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K12" t="n">
-        <v>237.6936194845047</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="L12" t="n">
-        <v>436.5043395143911</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="M12" t="n">
-        <v>436.5043395143911</v>
+        <v>214.8762327595741</v>
       </c>
       <c r="N12" t="n">
-        <v>635.3150595442776</v>
+        <v>405.6541964246164</v>
       </c>
       <c r="O12" t="n">
-        <v>635.3150595442776</v>
+        <v>604.4649164545027</v>
       </c>
       <c r="P12" t="n">
-        <v>684.697428650283</v>
+        <v>803.275636484389</v>
       </c>
       <c r="Q12" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R12" t="n">
-        <v>726.1846364833436</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="S12" t="n">
-        <v>726.1846364833436</v>
+        <v>561.0690165717044</v>
       </c>
       <c r="T12" t="n">
-        <v>527.0031780730211</v>
+        <v>543.8011921590221</v>
       </c>
       <c r="U12" t="n">
-        <v>482.0100376853201</v>
+        <v>498.8080517713211</v>
       </c>
       <c r="V12" t="n">
-        <v>429.672428208561</v>
+        <v>446.4704422945621</v>
       </c>
       <c r="W12" t="n">
-        <v>231.5361302267401</v>
+        <v>375.8695846255356</v>
       </c>
       <c r="X12" t="n">
-        <v>206.9228656299577</v>
+        <v>351.2563200287532</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.1080638512482</v>
+        <v>327.4415182500438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="C13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="D13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="E13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="F13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="G13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K13" t="n">
-        <v>29.9770267183867</v>
+        <v>29.97702671838669</v>
       </c>
       <c r="L13" t="n">
         <v>103.5825901937267</v>
@@ -5212,37 +5212,37 @@
         <v>283.0259537326753</v>
       </c>
       <c r="O13" t="n">
-        <v>439.4893445512306</v>
+        <v>351.9676985059957</v>
       </c>
       <c r="P13" t="n">
-        <v>475.258435864953</v>
+        <v>475.2584358649525</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.258435864953</v>
+        <v>475.2584358649525</v>
       </c>
       <c r="R13" t="n">
-        <v>475.258435864953</v>
+        <v>475.2584358649525</v>
       </c>
       <c r="S13" t="n">
-        <v>436.9362715252752</v>
+        <v>436.9362715252748</v>
       </c>
       <c r="T13" t="n">
-        <v>389.2818867856176</v>
+        <v>389.2818867856173</v>
       </c>
       <c r="U13" t="n">
-        <v>282.2675037638064</v>
+        <v>282.2675037638062</v>
       </c>
       <c r="V13" t="n">
-        <v>208.6898740574676</v>
+        <v>208.6898740574674</v>
       </c>
       <c r="W13" t="n">
-        <v>101.6211071587283</v>
+        <v>101.6211071587282</v>
       </c>
       <c r="X13" t="n">
-        <v>55.11013516413682</v>
+        <v>55.11013516413675</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>421.7602786308946</v>
+        <v>407.6912775199667</v>
       </c>
       <c r="C14" t="n">
-        <v>421.7602786308946</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="D14" t="n">
-        <v>421.7602786308946</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7602786308946</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="F14" t="n">
-        <v>218.9128956802912</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="G14" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I14" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J14" t="n">
         <v>61.88955680326644</v>
       </c>
       <c r="K14" t="n">
-        <v>252.8445129431565</v>
+        <v>252.8445129431566</v>
       </c>
       <c r="L14" t="n">
         <v>451.6552329730429</v>
       </c>
       <c r="M14" t="n">
-        <v>650.4659530029294</v>
+        <v>650.4659530029292</v>
       </c>
       <c r="N14" t="n">
-        <v>650.4659530029294</v>
+        <v>740.1222241440411</v>
       </c>
       <c r="O14" t="n">
-        <v>650.4659530029294</v>
+        <v>740.1222241440411</v>
       </c>
       <c r="P14" t="n">
-        <v>803.2756364843895</v>
+        <v>740.1222241440411</v>
       </c>
       <c r="Q14" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R14" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S14" t="n">
-        <v>789.9766350305503</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T14" t="n">
-        <v>789.9766350305503</v>
+        <v>772.5425106678418</v>
       </c>
       <c r="U14" t="n">
-        <v>789.9766350305503</v>
+        <v>772.5425106678418</v>
       </c>
       <c r="V14" t="n">
-        <v>789.9766350305503</v>
+        <v>772.5425106678418</v>
       </c>
       <c r="W14" t="n">
-        <v>789.9766350305503</v>
+        <v>600.3853194123966</v>
       </c>
       <c r="X14" t="n">
-        <v>789.9766350305503</v>
+        <v>407.6912775199667</v>
       </c>
       <c r="Y14" t="n">
-        <v>587.1292520799468</v>
+        <v>407.6912775199667</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>225.4999370791958</v>
+        <v>212.3814386370135</v>
       </c>
       <c r="C15" t="n">
-        <v>225.4999370791958</v>
+        <v>212.3814386370135</v>
       </c>
       <c r="D15" t="n">
-        <v>225.4999370791958</v>
+        <v>212.3814386370135</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8904080820505</v>
+        <v>54.77190963986823</v>
       </c>
       <c r="F15" t="n">
-        <v>67.8904080820505</v>
+        <v>54.77190963986823</v>
       </c>
       <c r="G15" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H15" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I15" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J15" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K15" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="L15" t="n">
-        <v>214.8762327595742</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="M15" t="n">
-        <v>413.6869527894606</v>
+        <v>88.26526856062367</v>
       </c>
       <c r="N15" t="n">
-        <v>413.6869527894606</v>
+        <v>287.07598859051</v>
       </c>
       <c r="O15" t="n">
-        <v>612.4976728193469</v>
+        <v>485.8867086203962</v>
       </c>
       <c r="P15" t="n">
-        <v>684.697428650283</v>
+        <v>684.6974286502825</v>
       </c>
       <c r="Q15" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R15" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S15" t="n">
-        <v>638.1600165727507</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T15" t="n">
-        <v>620.8921921600682</v>
+        <v>786.0078120717067</v>
       </c>
       <c r="U15" t="n">
-        <v>575.8990517723672</v>
+        <v>741.0146716840057</v>
       </c>
       <c r="V15" t="n">
-        <v>523.5614422956082</v>
+        <v>688.6770622072468</v>
       </c>
       <c r="W15" t="n">
-        <v>452.9605846265816</v>
+        <v>618.0762045382202</v>
       </c>
       <c r="X15" t="n">
-        <v>428.3473200297992</v>
+        <v>415.2288215876168</v>
       </c>
       <c r="Y15" t="n">
-        <v>225.4999370791958</v>
+        <v>212.3814386370135</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="C16" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="D16" t="n">
-        <v>16.06551272968779</v>
+        <v>46.84355456140071</v>
       </c>
       <c r="E16" t="n">
-        <v>48.85418747930765</v>
+        <v>46.84355456140071</v>
       </c>
       <c r="F16" t="n">
-        <v>48.85418747930765</v>
+        <v>46.84355456140071</v>
       </c>
       <c r="G16" t="n">
-        <v>61.18268090339279</v>
+        <v>59.17204798548591</v>
       </c>
       <c r="H16" t="n">
-        <v>61.18268090339279</v>
+        <v>59.17204798548591</v>
       </c>
       <c r="I16" t="n">
-        <v>61.18268090339279</v>
+        <v>92.63151712648167</v>
       </c>
       <c r="J16" t="n">
-        <v>61.18268090339279</v>
+        <v>92.63151712648167</v>
       </c>
       <c r="K16" t="n">
-        <v>75.09419489209171</v>
+        <v>106.5430311151806</v>
       </c>
       <c r="L16" t="n">
-        <v>148.6997583674317</v>
+        <v>180.1485945905206</v>
       </c>
       <c r="M16" t="n">
-        <v>236.8994044130167</v>
+        <v>268.3482406361056</v>
       </c>
       <c r="N16" t="n">
-        <v>328.1431219063803</v>
+        <v>359.5919581294692</v>
       </c>
       <c r="O16" t="n">
-        <v>397.0848666797007</v>
+        <v>428.5337029027896</v>
       </c>
       <c r="P16" t="n">
-        <v>475.258435864953</v>
+        <v>464.302794216512</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.258435864953</v>
+        <v>464.302794216512</v>
       </c>
       <c r="R16" t="n">
-        <v>475.258435864953</v>
+        <v>475.2584358649525</v>
       </c>
       <c r="S16" t="n">
-        <v>436.9362715252752</v>
+        <v>436.9362715252748</v>
       </c>
       <c r="T16" t="n">
-        <v>389.2818867856176</v>
+        <v>389.2818867856173</v>
       </c>
       <c r="U16" t="n">
-        <v>282.2675037638064</v>
+        <v>282.2675037638062</v>
       </c>
       <c r="V16" t="n">
-        <v>208.6898740574676</v>
+        <v>208.6898740574674</v>
       </c>
       <c r="W16" t="n">
-        <v>101.6211071587283</v>
+        <v>101.6211071587282</v>
       </c>
       <c r="X16" t="n">
-        <v>55.11013516413682</v>
+        <v>55.11013516413675</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>480.5255913196302</v>
+        <v>480.5255913196303</v>
       </c>
       <c r="C17" t="n">
-        <v>413.0266814790339</v>
+        <v>413.0266814790342</v>
       </c>
       <c r="D17" t="n">
-        <v>356.0129867135332</v>
+        <v>356.0129867135333</v>
       </c>
       <c r="E17" t="n">
-        <v>272.2181778059221</v>
+        <v>272.2181778059222</v>
       </c>
       <c r="F17" t="n">
         <v>164.0033408930045</v>
       </c>
       <c r="G17" t="n">
-        <v>48.70994616051345</v>
+        <v>48.70994616051337</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I17" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J17" t="n">
         <v>61.88955680326644</v>
       </c>
       <c r="K17" t="n">
-        <v>252.8445129431565</v>
+        <v>252.8445129431566</v>
       </c>
       <c r="L17" t="n">
-        <v>354.4398710592014</v>
+        <v>451.6552329730429</v>
       </c>
       <c r="M17" t="n">
-        <v>354.4398710592014</v>
+        <v>451.6552329730429</v>
       </c>
       <c r="N17" t="n">
-        <v>553.2505910890878</v>
+        <v>616.4040034294353</v>
       </c>
       <c r="O17" t="n">
-        <v>553.2505910890878</v>
+        <v>616.4040034294353</v>
       </c>
       <c r="P17" t="n">
-        <v>740.1222241440415</v>
+        <v>803.275636484389</v>
       </c>
       <c r="Q17" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R17" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S17" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T17" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="U17" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="V17" t="n">
-        <v>774.6170035694734</v>
+        <v>774.617003569473</v>
       </c>
       <c r="W17" t="n">
-        <v>723.7392843131076</v>
+        <v>723.7392843131078</v>
       </c>
       <c r="X17" t="n">
         <v>652.3247144197574</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>240.7386887398217</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="C18" t="n">
-        <v>240.7386887398217</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="D18" t="n">
-        <v>93.15038209876559</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="E18" t="n">
-        <v>93.15038209876559</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="F18" t="n">
-        <v>93.15038209876559</v>
+        <v>261.8549235999727</v>
       </c>
       <c r="G18" t="n">
-        <v>93.15038209876559</v>
+        <v>124.7566814442186</v>
       </c>
       <c r="H18" t="n">
-        <v>93.15038209876559</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I18" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J18" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K18" t="n">
-        <v>202.6190875785292</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="L18" t="n">
-        <v>401.4298076084157</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="M18" t="n">
-        <v>401.4298076084157</v>
+        <v>214.8762327595741</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6541964246167</v>
+        <v>413.6869527894603</v>
       </c>
       <c r="O18" t="n">
-        <v>604.4649164545031</v>
+        <v>612.4976728193467</v>
       </c>
       <c r="P18" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="Q18" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R18" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S18" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T18" t="n">
-        <v>604.0941780740669</v>
+        <v>604.0941780740665</v>
       </c>
       <c r="U18" t="n">
-        <v>604.0941780740669</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="V18" t="n">
-        <v>604.0941780740669</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="W18" t="n">
-        <v>604.0941780740669</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="X18" t="n">
-        <v>604.0941780740669</v>
+        <v>406.8107135833558</v>
       </c>
       <c r="Y18" t="n">
-        <v>407.7812398613822</v>
+        <v>406.8107135833558</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346.1308234625221</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="C19" t="n">
-        <v>177.1040023198935</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="D19" t="n">
-        <v>177.1040023198935</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="E19" t="n">
-        <v>177.1040023198935</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="F19" t="n">
-        <v>177.1040023198935</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="G19" t="n">
-        <v>177.1040023198935</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H19" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I19" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J19" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K19" t="n">
-        <v>29.9770267183867</v>
+        <v>29.97702671838669</v>
       </c>
       <c r="L19" t="n">
         <v>103.5825901937267</v>
@@ -5692,31 +5692,31 @@
         <v>387.7367898197181</v>
       </c>
       <c r="Q19" t="n">
-        <v>387.7367898197181</v>
+        <v>328.1565296064628</v>
       </c>
       <c r="R19" t="n">
-        <v>387.7367898197181</v>
+        <v>328.1565296064628</v>
       </c>
       <c r="S19" t="n">
-        <v>346.1308234625221</v>
+        <v>328.1565296064628</v>
       </c>
       <c r="T19" t="n">
-        <v>346.1308234625221</v>
+        <v>328.1565296064628</v>
       </c>
       <c r="U19" t="n">
-        <v>346.1308234625221</v>
+        <v>328.1565296064628</v>
       </c>
       <c r="V19" t="n">
-        <v>346.1308234625221</v>
+        <v>218.9128956802911</v>
       </c>
       <c r="W19" t="n">
-        <v>346.1308234625221</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="X19" t="n">
-        <v>346.1308234625221</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="Y19" t="n">
-        <v>346.1308234625221</v>
+        <v>16.06551272968778</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.52559131963</v>
+        <v>480.5255913196299</v>
       </c>
       <c r="C20" t="n">
-        <v>413.0266814790339</v>
+        <v>413.0266814790336</v>
       </c>
       <c r="D20" t="n">
         <v>356.0129867135329</v>
@@ -5738,61 +5738,61 @@
         <v>272.2181778059218</v>
       </c>
       <c r="F20" t="n">
-        <v>164.003340893004</v>
+        <v>164.0033408930043</v>
       </c>
       <c r="G20" t="n">
-        <v>48.70994616051345</v>
+        <v>48.70994616051338</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I20" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J20" t="n">
-        <v>61.88955680326644</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K20" t="n">
-        <v>155.629151029315</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="L20" t="n">
-        <v>155.629151029315</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="M20" t="n">
-        <v>155.629151029315</v>
+        <v>155.6291510293148</v>
       </c>
       <c r="N20" t="n">
-        <v>354.4398710592014</v>
+        <v>354.4398710592011</v>
       </c>
       <c r="O20" t="n">
-        <v>553.2505910890878</v>
+        <v>553.2505910890874</v>
       </c>
       <c r="P20" t="n">
-        <v>740.1222241440415</v>
+        <v>740.1222241440411</v>
       </c>
       <c r="Q20" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R20" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="S20" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="T20" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="U20" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="V20" t="n">
-        <v>774.6170035694734</v>
+        <v>774.6170035694729</v>
       </c>
       <c r="W20" t="n">
-        <v>723.7392843131076</v>
+        <v>723.7392843131074</v>
       </c>
       <c r="X20" t="n">
-        <v>652.3247144197572</v>
+        <v>652.3247144197571</v>
       </c>
       <c r="Y20" t="n">
         <v>564.9248186475518</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>230.2486242545197</v>
+        <v>543.3040077203502</v>
       </c>
       <c r="C21" t="n">
-        <v>230.2486242545197</v>
+        <v>543.3040077203502</v>
       </c>
       <c r="D21" t="n">
-        <v>230.2486242545197</v>
+        <v>395.715701079294</v>
       </c>
       <c r="E21" t="n">
-        <v>230.2486242545197</v>
+        <v>238.1061720821487</v>
       </c>
       <c r="F21" t="n">
-        <v>230.2486242545197</v>
+        <v>93.15038209876559</v>
       </c>
       <c r="G21" t="n">
         <v>93.15038209876559</v>
@@ -5826,55 +5826,55 @@
         <v>93.15038209876559</v>
       </c>
       <c r="I21" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J21" t="n">
-        <v>16.06551272968779</v>
+        <v>51.14004463566326</v>
       </c>
       <c r="K21" t="n">
-        <v>16.06551272968779</v>
+        <v>237.6936194845047</v>
       </c>
       <c r="L21" t="n">
-        <v>206.8434763947303</v>
+        <v>436.504339514391</v>
       </c>
       <c r="M21" t="n">
-        <v>405.6541964246167</v>
+        <v>604.4649164545027</v>
       </c>
       <c r="N21" t="n">
-        <v>604.4649164545031</v>
+        <v>803.275636484389</v>
       </c>
       <c r="O21" t="n">
-        <v>604.4649164545031</v>
+        <v>803.275636484389</v>
       </c>
       <c r="P21" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="Q21" t="n">
-        <v>803.2756364843895</v>
+        <v>803.275636484389</v>
       </c>
       <c r="R21" t="n">
-        <v>803.2756364843895</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="S21" t="n">
-        <v>803.2756364843895</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="T21" t="n">
-        <v>803.2756364843895</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="U21" t="n">
-        <v>803.2756364843895</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="V21" t="n">
-        <v>600.428253533786</v>
+        <v>726.1846364833432</v>
       </c>
       <c r="W21" t="n">
-        <v>397.5808705831826</v>
+        <v>543.3040077203502</v>
       </c>
       <c r="X21" t="n">
-        <v>230.2486242545197</v>
+        <v>543.3040077203502</v>
       </c>
       <c r="Y21" t="n">
-        <v>230.2486242545197</v>
+        <v>543.3040077203502</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="C22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="D22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="E22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="F22" t="n">
-        <v>184.8894068691147</v>
+        <v>88.08280480547793</v>
       </c>
       <c r="G22" t="n">
-        <v>88.08280480547796</v>
+        <v>88.08280480547793</v>
       </c>
       <c r="H22" t="n">
-        <v>88.08280480547796</v>
+        <v>88.08280480547793</v>
       </c>
       <c r="I22" t="n">
-        <v>88.08280480547796</v>
+        <v>88.08280480547793</v>
       </c>
       <c r="J22" t="n">
-        <v>16.06551272968779</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K22" t="n">
-        <v>29.9770267183867</v>
+        <v>29.97702671838669</v>
       </c>
       <c r="L22" t="n">
         <v>103.5825901937267</v>
@@ -5935,25 +5935,25 @@
         <v>387.7367898197181</v>
       </c>
       <c r="S22" t="n">
-        <v>387.7367898197181</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="T22" t="n">
-        <v>387.7367898197181</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="U22" t="n">
-        <v>387.7367898197181</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="V22" t="n">
-        <v>387.7367898197181</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="W22" t="n">
-        <v>387.7367898197181</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="X22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.8894068691147</v>
+        <v>235.7181799668966</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>480.5255913196307</v>
+        <v>480.5255913196298</v>
       </c>
       <c r="C23" t="n">
-        <v>413.0266814790344</v>
+        <v>413.0266814790338</v>
       </c>
       <c r="D23" t="n">
-        <v>356.0129867135335</v>
+        <v>356.012986713533</v>
       </c>
       <c r="E23" t="n">
-        <v>272.2181778059223</v>
+        <v>272.218177805922</v>
       </c>
       <c r="F23" t="n">
-        <v>164.0033408930047</v>
+        <v>164.0033408930045</v>
       </c>
       <c r="G23" t="n">
-        <v>48.70994616051347</v>
+        <v>48.70994616051339</v>
       </c>
       <c r="H23" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I23" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J23" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K23" t="n">
-        <v>207.0204688695779</v>
+        <v>155.6291510293149</v>
       </c>
       <c r="L23" t="n">
-        <v>405.8311888994645</v>
+        <v>354.4398710592012</v>
       </c>
       <c r="M23" t="n">
-        <v>604.641908929351</v>
+        <v>354.4398710592012</v>
       </c>
       <c r="N23" t="n">
-        <v>604.641908929351</v>
+        <v>354.4398710592012</v>
       </c>
       <c r="O23" t="n">
-        <v>616.4040034294363</v>
+        <v>553.2505910890875</v>
       </c>
       <c r="P23" t="n">
-        <v>803.27563648439</v>
+        <v>740.1222241440412</v>
       </c>
       <c r="Q23" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="R23" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="S23" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="T23" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="U23" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="V23" t="n">
-        <v>774.6170035694739</v>
+        <v>774.6170035694731</v>
       </c>
       <c r="W23" t="n">
-        <v>723.7392843131084</v>
+        <v>723.7392843131074</v>
       </c>
       <c r="X23" t="n">
-        <v>652.324714419758</v>
+        <v>652.324714419757</v>
       </c>
       <c r="Y23" t="n">
-        <v>564.9248186475527</v>
+        <v>564.9248186475515</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>397.5808705831829</v>
+        <v>494.016463446072</v>
       </c>
       <c r="C24" t="n">
-        <v>298.1195448688251</v>
+        <v>321.2633483678892</v>
       </c>
       <c r="D24" t="n">
-        <v>298.1195448688251</v>
+        <v>173.6750417268331</v>
       </c>
       <c r="E24" t="n">
-        <v>298.1195448688251</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1637548854419</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="G24" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="H24" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I24" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J24" t="n">
-        <v>16.0655127296878</v>
+        <v>51.14004463566326</v>
       </c>
       <c r="K24" t="n">
-        <v>202.6190875785293</v>
+        <v>237.6936194845047</v>
       </c>
       <c r="L24" t="n">
-        <v>287.0759885905105</v>
+        <v>436.5043395143911</v>
       </c>
       <c r="M24" t="n">
-        <v>485.886708620397</v>
+        <v>485.8867086203963</v>
       </c>
       <c r="N24" t="n">
-        <v>485.886708620397</v>
+        <v>485.8867086203963</v>
       </c>
       <c r="O24" t="n">
-        <v>684.6974286502835</v>
+        <v>485.8867086203963</v>
       </c>
       <c r="P24" t="n">
-        <v>684.6974286502835</v>
+        <v>684.6974286502826</v>
       </c>
       <c r="Q24" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="R24" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="S24" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="T24" t="n">
-        <v>803.27563648439</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="U24" t="n">
-        <v>600.4282535337865</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="V24" t="n">
-        <v>397.5808705831829</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="W24" t="n">
-        <v>397.5808705831829</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="X24" t="n">
-        <v>397.5808705831829</v>
+        <v>803.2756364843891</v>
       </c>
       <c r="Y24" t="n">
-        <v>397.5808705831829</v>
+        <v>661.0590145676324</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.96033574847462</v>
+        <v>223.863054425933</v>
       </c>
       <c r="C25" t="n">
-        <v>41.96033574847462</v>
+        <v>54.83623328330441</v>
       </c>
       <c r="D25" t="n">
-        <v>41.96033574847462</v>
+        <v>54.83623328330441</v>
       </c>
       <c r="E25" t="n">
-        <v>41.96033574847462</v>
+        <v>54.83623328330441</v>
       </c>
       <c r="F25" t="n">
-        <v>41.96033574847462</v>
+        <v>54.83623328330441</v>
       </c>
       <c r="G25" t="n">
-        <v>41.96033574847462</v>
+        <v>54.83623328330441</v>
       </c>
       <c r="H25" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="I25" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="J25" t="n">
-        <v>16.0655127296878</v>
+        <v>16.06551272968778</v>
       </c>
       <c r="K25" t="n">
-        <v>29.97702671838671</v>
+        <v>29.9770267183867</v>
       </c>
       <c r="L25" t="n">
         <v>103.5825901937267</v>
@@ -6209,67 +6209,67 @@
         <v>1086.102367981804</v>
       </c>
       <c r="E26" t="n">
-        <v>841.2160612018208</v>
+        <v>841.2160612018204</v>
       </c>
       <c r="F26" t="n">
-        <v>571.9097264165302</v>
+        <v>571.90972641653</v>
       </c>
       <c r="G26" t="n">
-        <v>295.5248338116663</v>
+        <v>295.5248338116662</v>
       </c>
       <c r="H26" t="n">
-        <v>101.7889025084678</v>
+        <v>101.7889025084677</v>
       </c>
       <c r="I26" t="n">
-        <v>58.13316133361965</v>
+        <v>58.13316133361963</v>
       </c>
       <c r="J26" t="n">
-        <v>243.2309915298707</v>
+        <v>243.2309915298685</v>
       </c>
       <c r="K26" t="n">
-        <v>573.4597337924331</v>
+        <v>573.4597337924311</v>
       </c>
       <c r="L26" t="n">
-        <v>1001.599106522048</v>
+        <v>1001.599106522046</v>
       </c>
       <c r="M26" t="n">
-        <v>1477.503810042795</v>
+        <v>1477.503810042793</v>
       </c>
       <c r="N26" t="n">
-        <v>1943.33837875156</v>
+        <v>1943.338378751559</v>
       </c>
       <c r="O26" t="n">
-        <v>2344.845900333927</v>
+        <v>2344.845900333926</v>
       </c>
       <c r="P26" t="n">
-        <v>2670.991319511553</v>
+        <v>2670.991319511552</v>
       </c>
       <c r="Q26" t="n">
-        <v>2873.418517974574</v>
+        <v>2873.418517974573</v>
       </c>
       <c r="R26" t="n">
-        <v>2906.658066680982</v>
+        <v>2906.658066680981</v>
       </c>
       <c r="S26" t="n">
-        <v>2853.54703935385</v>
+        <v>2853.547039353849</v>
       </c>
       <c r="T26" t="n">
         <v>2772.8771403935</v>
       </c>
       <c r="U26" t="n">
-        <v>2661.005502859271</v>
+        <v>2661.00550285927</v>
       </c>
       <c r="V26" t="n">
-        <v>2471.255372071982</v>
+        <v>2471.255372071981</v>
       </c>
       <c r="W26" t="n">
-        <v>2259.286154943243</v>
+        <v>2259.286154943242</v>
       </c>
       <c r="X26" t="n">
-        <v>2026.78008717752</v>
+        <v>2026.780087177519</v>
       </c>
       <c r="Y26" t="n">
-        <v>1778.288693532942</v>
+        <v>1778.288693532941</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>853.5759285370639</v>
+        <v>866.8159401169958</v>
       </c>
       <c r="C27" t="n">
-        <v>680.822813458881</v>
+        <v>694.0628250388129</v>
       </c>
       <c r="D27" t="n">
-        <v>533.2345068178249</v>
+        <v>546.4745183977567</v>
       </c>
       <c r="E27" t="n">
-        <v>517.7265859450265</v>
+        <v>388.8649894006114</v>
       </c>
       <c r="F27" t="n">
-        <v>381.0074415729823</v>
+        <v>243.9091994172282</v>
       </c>
       <c r="G27" t="n">
-        <v>243.9091994172283</v>
+        <v>243.9091994172282</v>
       </c>
       <c r="H27" t="n">
-        <v>135.2180307026975</v>
+        <v>135.2180307026974</v>
       </c>
       <c r="I27" t="n">
-        <v>58.13316133361965</v>
+        <v>58.13316133361963</v>
       </c>
       <c r="J27" t="n">
-        <v>93.20769323959512</v>
+        <v>93.2076932395951</v>
       </c>
       <c r="K27" t="n">
         <v>279.7612680884366</v>
@@ -6318,7 +6318,7 @@
         <v>1450.94285268506</v>
       </c>
       <c r="O27" t="n">
-        <v>1788.53247578541</v>
+        <v>1788.532475785411</v>
       </c>
       <c r="P27" t="n">
         <v>2043.051369671663</v>
@@ -6327,28 +6327,28 @@
         <v>2161.62957750577</v>
       </c>
       <c r="R27" t="n">
-        <v>2084.538577504724</v>
+        <v>2161.62957750577</v>
       </c>
       <c r="S27" t="n">
-        <v>1919.422957593085</v>
+        <v>2074.764577297364</v>
       </c>
       <c r="T27" t="n">
-        <v>1720.241499182763</v>
+        <v>1875.583118887041</v>
       </c>
       <c r="U27" t="n">
-        <v>1635.436332921769</v>
+        <v>1648.6763445017</v>
       </c>
       <c r="V27" t="n">
-        <v>1401.185089447369</v>
+        <v>1414.425101027301</v>
       </c>
       <c r="W27" t="n">
-        <v>1290.77220590505</v>
+        <v>1161.910609360634</v>
       </c>
       <c r="X27" t="n">
-        <v>1226.346915434974</v>
+        <v>955.3837107662118</v>
       </c>
       <c r="Y27" t="n">
-        <v>1020.618479658624</v>
+        <v>891.7568831142092</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.2021042620814</v>
+        <v>157.202104262081</v>
       </c>
       <c r="C28" t="n">
-        <v>130.2768912437996</v>
+        <v>130.2768912437993</v>
       </c>
       <c r="D28" t="n">
-        <v>121.8678261211573</v>
+        <v>121.867826121157</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5102179089393</v>
+        <v>115.5102179089391</v>
       </c>
       <c r="F28" t="n">
-        <v>109.9764508718675</v>
+        <v>109.9764508718673</v>
       </c>
       <c r="G28" t="n">
-        <v>82.74323677705118</v>
+        <v>82.74323677705104</v>
       </c>
       <c r="H28" t="n">
-        <v>63.8063553111923</v>
+        <v>63.80635531119222</v>
       </c>
       <c r="I28" t="n">
-        <v>58.13316133361965</v>
+        <v>58.13316133361963</v>
       </c>
       <c r="J28" t="n">
-        <v>58.13316133361965</v>
+        <v>126.8227994928101</v>
       </c>
       <c r="K28" t="n">
-        <v>211.318461444991</v>
+        <v>140.734313481509</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9506744616125</v>
+        <v>214.3398769568491</v>
       </c>
       <c r="M28" t="n">
-        <v>482.1503205071975</v>
+        <v>302.5395230024341</v>
       </c>
       <c r="N28" t="n">
-        <v>712.6678241232335</v>
+        <v>533.0570266184701</v>
       </c>
       <c r="O28" t="n">
-        <v>920.8833550192262</v>
+        <v>741.272557514463</v>
       </c>
       <c r="P28" t="n">
-        <v>956.6524463329486</v>
+        <v>875.7732732452869</v>
       </c>
       <c r="Q28" t="n">
-        <v>956.6524463329486</v>
+        <v>956.6524463329478</v>
       </c>
       <c r="R28" t="n">
-        <v>934.8803190635103</v>
+        <v>934.8803190635097</v>
       </c>
       <c r="S28" t="n">
-        <v>856.7461288505394</v>
+        <v>856.7461288505388</v>
       </c>
       <c r="T28" t="n">
-        <v>769.2797182375887</v>
+        <v>769.279718237588</v>
       </c>
       <c r="U28" t="n">
-        <v>622.4533093424843</v>
+        <v>622.4533093424836</v>
       </c>
       <c r="V28" t="n">
-        <v>509.0636537628523</v>
+        <v>509.0636537628516</v>
       </c>
       <c r="W28" t="n">
-        <v>362.1828609908198</v>
+        <v>362.1828609908192</v>
       </c>
       <c r="X28" t="n">
-        <v>275.8598631229351</v>
+        <v>275.8598631229346</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.0032148151929</v>
+        <v>197.0032148151924</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1086.102367981804</v>
       </c>
       <c r="E29" t="n">
-        <v>841.2160612018207</v>
+        <v>841.2160612018204</v>
       </c>
       <c r="F29" t="n">
-        <v>571.9097264165305</v>
+        <v>571.90972641653</v>
       </c>
       <c r="G29" t="n">
         <v>295.5248338116662</v>
       </c>
       <c r="H29" t="n">
-        <v>101.7889025084678</v>
+        <v>101.7889025084677</v>
       </c>
       <c r="I29" t="n">
         <v>58.13316133361965</v>
@@ -6464,22 +6464,22 @@
         <v>243.2309915298707</v>
       </c>
       <c r="K29" t="n">
-        <v>573.4597337924331</v>
+        <v>573.4597337924333</v>
       </c>
       <c r="L29" t="n">
-        <v>1001.599106522048</v>
+        <v>1001.599106522049</v>
       </c>
       <c r="M29" t="n">
-        <v>1477.503810042794</v>
+        <v>1477.503810042795</v>
       </c>
       <c r="N29" t="n">
-        <v>1943.33837875156</v>
+        <v>1943.338378751561</v>
       </c>
       <c r="O29" t="n">
-        <v>2344.845900333927</v>
+        <v>2344.845900333928</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.991319511553</v>
+        <v>2670.991319511554</v>
       </c>
       <c r="Q29" t="n">
         <v>2873.418517974574</v>
@@ -6494,19 +6494,19 @@
         <v>2772.8771403935</v>
       </c>
       <c r="U29" t="n">
-        <v>2661.005502859271</v>
+        <v>2661.00550285927</v>
       </c>
       <c r="V29" t="n">
-        <v>2471.255372071982</v>
+        <v>2471.255372071981</v>
       </c>
       <c r="W29" t="n">
-        <v>2259.286154943243</v>
+        <v>2259.286154943242</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.78008717752</v>
+        <v>2026.780087177519</v>
       </c>
       <c r="Y29" t="n">
-        <v>1778.288693532942</v>
+        <v>1778.288693532941</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>995.6775366614105</v>
+        <v>647.6294626235708</v>
       </c>
       <c r="C30" t="n">
-        <v>822.9244215832277</v>
+        <v>474.8763475453881</v>
       </c>
       <c r="D30" t="n">
-        <v>675.3361149421717</v>
+        <v>327.2880409043319</v>
       </c>
       <c r="E30" t="n">
-        <v>517.7265859450264</v>
+        <v>169.6785119071866</v>
       </c>
       <c r="F30" t="n">
-        <v>381.0074415729823</v>
+        <v>166.8243300481504</v>
       </c>
       <c r="G30" t="n">
-        <v>243.9091994172283</v>
+        <v>166.8243300481504</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2180307026975</v>
+        <v>58.13316133361965</v>
       </c>
       <c r="I30" t="n">
         <v>58.13316133361965</v>
       </c>
       <c r="J30" t="n">
-        <v>93.20769323959512</v>
+        <v>93.20769323959513</v>
       </c>
       <c r="K30" t="n">
         <v>279.7612680884366</v>
       </c>
       <c r="L30" t="n">
-        <v>591.455178576967</v>
+        <v>591.4551785769671</v>
       </c>
       <c r="M30" t="n">
         <v>1007.987464539829</v>
@@ -6555,7 +6555,7 @@
         <v>1450.94285268506</v>
       </c>
       <c r="O30" t="n">
-        <v>1788.53247578541</v>
+        <v>1788.532475785411</v>
       </c>
       <c r="P30" t="n">
         <v>2043.051369671663</v>
@@ -6564,28 +6564,28 @@
         <v>2161.62957750577</v>
       </c>
       <c r="R30" t="n">
-        <v>2084.538577504724</v>
+        <v>2161.62957750577</v>
       </c>
       <c r="S30" t="n">
-        <v>1919.422957593085</v>
+        <v>1996.513957594131</v>
       </c>
       <c r="T30" t="n">
-        <v>1862.343107307109</v>
+        <v>1797.332499183809</v>
       </c>
       <c r="U30" t="n">
-        <v>1635.436332921768</v>
+        <v>1571.591475132622</v>
       </c>
       <c r="V30" t="n">
-        <v>1543.286697571716</v>
+        <v>1337.340231658223</v>
       </c>
       <c r="W30" t="n">
-        <v>1290.772205905049</v>
+        <v>1084.825739991556</v>
       </c>
       <c r="X30" t="n">
-        <v>1226.346915434974</v>
+        <v>878.2988413971339</v>
       </c>
       <c r="Y30" t="n">
-        <v>1020.618479658624</v>
+        <v>672.5704056207843</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.2021042620814</v>
+        <v>157.202104262081</v>
       </c>
       <c r="C31" t="n">
-        <v>130.2768912437996</v>
+        <v>130.2768912437993</v>
       </c>
       <c r="D31" t="n">
-        <v>121.8678261211573</v>
+        <v>121.867826121157</v>
       </c>
       <c r="E31" t="n">
-        <v>115.5102179089393</v>
+        <v>115.5102179089391</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9764508718675</v>
+        <v>109.9764508718674</v>
       </c>
       <c r="G31" t="n">
-        <v>82.74323677705118</v>
+        <v>82.74323677705107</v>
       </c>
       <c r="H31" t="n">
-        <v>63.8063553111923</v>
+        <v>63.80635531119224</v>
       </c>
       <c r="I31" t="n">
         <v>58.13316133361965</v>
       </c>
       <c r="J31" t="n">
-        <v>58.13316133361965</v>
+        <v>86.28063778723907</v>
       </c>
       <c r="K31" t="n">
-        <v>211.318461444991</v>
+        <v>239.4659378986104</v>
       </c>
       <c r="L31" t="n">
-        <v>424.1978110430034</v>
+        <v>452.3452874966229</v>
       </c>
       <c r="M31" t="n">
-        <v>651.6712432112607</v>
+        <v>540.5449335422079</v>
       </c>
       <c r="N31" t="n">
-        <v>771.0624371582448</v>
+        <v>631.7886510355715</v>
       </c>
       <c r="O31" t="n">
-        <v>840.0041819315653</v>
+        <v>700.730395808892</v>
       </c>
       <c r="P31" t="n">
-        <v>875.7732732452877</v>
+        <v>875.7732732452869</v>
       </c>
       <c r="Q31" t="n">
-        <v>956.6524463329486</v>
+        <v>956.6524463329478</v>
       </c>
       <c r="R31" t="n">
-        <v>934.8803190635103</v>
+        <v>934.8803190635097</v>
       </c>
       <c r="S31" t="n">
-        <v>856.7461288505394</v>
+        <v>856.7461288505388</v>
       </c>
       <c r="T31" t="n">
-        <v>769.2797182375887</v>
+        <v>769.279718237588</v>
       </c>
       <c r="U31" t="n">
-        <v>622.4533093424843</v>
+        <v>622.4533093424836</v>
       </c>
       <c r="V31" t="n">
-        <v>509.0636537628523</v>
+        <v>509.0636537628516</v>
       </c>
       <c r="W31" t="n">
-        <v>362.1828609908198</v>
+        <v>362.1828609908192</v>
       </c>
       <c r="X31" t="n">
-        <v>275.8598631229351</v>
+        <v>275.8598631229346</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.0032148151929</v>
+        <v>197.0032148151924</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>571.9097264165302</v>
       </c>
       <c r="G32" t="n">
-        <v>295.5248338116662</v>
+        <v>295.5248338116663</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7889025084678</v>
+        <v>101.7889025084679</v>
       </c>
       <c r="I32" t="n">
         <v>58.13316133361965</v>
@@ -6701,10 +6701,10 @@
         <v>243.2309915298706</v>
       </c>
       <c r="K32" t="n">
-        <v>573.4597337924333</v>
+        <v>573.4597337924331</v>
       </c>
       <c r="L32" t="n">
-        <v>1001.599106522049</v>
+        <v>1001.599106522048</v>
       </c>
       <c r="M32" t="n">
         <v>1477.503810042795</v>
@@ -6719,7 +6719,7 @@
         <v>2670.991319511554</v>
       </c>
       <c r="Q32" t="n">
-        <v>2873.418517974575</v>
+        <v>2873.418517974574</v>
       </c>
       <c r="R32" t="n">
         <v>2906.658066680982</v>
@@ -6731,13 +6731,13 @@
         <v>2772.8771403935</v>
       </c>
       <c r="U32" t="n">
-        <v>2661.005502859271</v>
+        <v>2661.00550285927</v>
       </c>
       <c r="V32" t="n">
-        <v>2471.255372071982</v>
+        <v>2471.255372071981</v>
       </c>
       <c r="W32" t="n">
-        <v>2259.286154943243</v>
+        <v>2259.286154943242</v>
       </c>
       <c r="X32" t="n">
         <v>2026.78008717752</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>473.9215551537711</v>
+        <v>1003.91418227275</v>
       </c>
       <c r="C33" t="n">
-        <v>301.1684400755883</v>
+        <v>831.1610671945668</v>
       </c>
       <c r="D33" t="n">
-        <v>153.5801334345321</v>
+        <v>683.5727605535108</v>
       </c>
       <c r="E33" t="n">
-        <v>138.0722125617337</v>
+        <v>525.9632315563655</v>
       </c>
       <c r="F33" t="n">
-        <v>135.2180307026975</v>
+        <v>381.0074415729823</v>
       </c>
       <c r="G33" t="n">
-        <v>135.2180307026975</v>
+        <v>243.9091994172283</v>
       </c>
       <c r="H33" t="n">
         <v>135.2180307026975</v>
@@ -6777,13 +6777,13 @@
         <v>58.13316133361965</v>
       </c>
       <c r="J33" t="n">
-        <v>93.20769323959512</v>
+        <v>93.20769323959513</v>
       </c>
       <c r="K33" t="n">
         <v>279.7612680884366</v>
       </c>
       <c r="L33" t="n">
-        <v>591.455178576967</v>
+        <v>591.4551785769671</v>
       </c>
       <c r="M33" t="n">
         <v>1007.987464539829</v>
@@ -6792,7 +6792,7 @@
         <v>1450.94285268506</v>
       </c>
       <c r="O33" t="n">
-        <v>1788.53247578541</v>
+        <v>1788.532475785411</v>
       </c>
       <c r="P33" t="n">
         <v>2043.051369671663</v>
@@ -6801,28 +6801,28 @@
         <v>2161.62957750577</v>
       </c>
       <c r="R33" t="n">
-        <v>2084.538577504724</v>
+        <v>2092.775223116063</v>
       </c>
       <c r="S33" t="n">
-        <v>1919.422957593085</v>
+        <v>2069.761211328771</v>
       </c>
       <c r="T33" t="n">
-        <v>1720.241499182763</v>
+        <v>2012.681361042795</v>
       </c>
       <c r="U33" t="n">
-        <v>1493.334724797422</v>
+        <v>1927.876194781801</v>
       </c>
       <c r="V33" t="n">
-        <v>1259.083481323022</v>
+        <v>1835.726559431749</v>
       </c>
       <c r="W33" t="n">
-        <v>1006.568989656356</v>
+        <v>1583.212067765082</v>
       </c>
       <c r="X33" t="n">
-        <v>800.0420910619332</v>
+        <v>1376.685169170659</v>
       </c>
       <c r="Y33" t="n">
-        <v>640.9641062753315</v>
+        <v>1170.95673339431</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.2021042620814</v>
+        <v>157.2021042620818</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2768912437996</v>
+        <v>130.2768912438</v>
       </c>
       <c r="D34" t="n">
-        <v>121.8678261211573</v>
+        <v>121.8678261211576</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5102179089393</v>
+        <v>115.5102179089396</v>
       </c>
       <c r="F34" t="n">
-        <v>109.9764508718675</v>
+        <v>109.9764508718677</v>
       </c>
       <c r="G34" t="n">
-        <v>82.74323677705118</v>
+        <v>82.74323677705129</v>
       </c>
       <c r="H34" t="n">
-        <v>63.8063553111923</v>
+        <v>63.80635531119236</v>
       </c>
       <c r="I34" t="n">
         <v>58.13316133361965</v>
       </c>
       <c r="J34" t="n">
-        <v>58.13316133361965</v>
+        <v>126.82279949281</v>
       </c>
       <c r="K34" t="n">
-        <v>100.1921517759391</v>
+        <v>239.4659378986128</v>
       </c>
       <c r="L34" t="n">
-        <v>313.0715013739515</v>
+        <v>313.0715013739528</v>
       </c>
       <c r="M34" t="n">
-        <v>401.2711474195365</v>
+        <v>401.2711474195378</v>
       </c>
       <c r="N34" t="n">
-        <v>631.7886510355725</v>
+        <v>631.7886510355737</v>
       </c>
       <c r="O34" t="n">
-        <v>840.0041819315653</v>
+        <v>840.0041819315664</v>
       </c>
       <c r="P34" t="n">
-        <v>875.7732732452877</v>
+        <v>875.7732732452888</v>
       </c>
       <c r="Q34" t="n">
-        <v>956.6524463329486</v>
+        <v>956.6524463329496</v>
       </c>
       <c r="R34" t="n">
-        <v>934.8803190635103</v>
+        <v>934.8803190635114</v>
       </c>
       <c r="S34" t="n">
-        <v>856.7461288505394</v>
+        <v>856.7461288505403</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2797182375887</v>
+        <v>769.2797182375895</v>
       </c>
       <c r="U34" t="n">
-        <v>622.4533093424843</v>
+        <v>622.453309342485</v>
       </c>
       <c r="V34" t="n">
-        <v>509.0636537628523</v>
+        <v>509.0636537628529</v>
       </c>
       <c r="W34" t="n">
-        <v>362.1828609908198</v>
+        <v>362.1828609908204</v>
       </c>
       <c r="X34" t="n">
-        <v>275.8598631229351</v>
+        <v>275.8598631229356</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.0032148151929</v>
+        <v>197.0032148151933</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1154.410550465317</v>
       </c>
       <c r="C35" t="n">
-        <v>978.9311700794804</v>
+        <v>978.9311700794801</v>
       </c>
       <c r="D35" t="n">
-        <v>813.937004768739</v>
+        <v>813.9370047687389</v>
       </c>
       <c r="E35" t="n">
-        <v>622.1617253158876</v>
+        <v>622.1617253158875</v>
       </c>
       <c r="F35" t="n">
-        <v>405.9664178577297</v>
+        <v>405.9664178577295</v>
       </c>
       <c r="G35" t="n">
         <v>182.6925525799979</v>
@@ -6935,28 +6935,28 @@
         <v>42.06764860393186</v>
       </c>
       <c r="J35" t="n">
-        <v>87.89169267751058</v>
+        <v>279.2195966835055</v>
       </c>
       <c r="K35" t="n">
-        <v>278.8466488174008</v>
+        <v>553.7726961607548</v>
       </c>
       <c r="L35" t="n">
-        <v>759.0401394303385</v>
+        <v>842.6382827676978</v>
       </c>
       <c r="M35" t="n">
-        <v>1264.562866755503</v>
+        <v>1179.269200165772</v>
       </c>
       <c r="N35" t="n">
-        <v>1591.123649341597</v>
+        <v>1505.829982751866</v>
       </c>
       <c r="O35" t="n">
-        <v>1853.357384801292</v>
+        <v>1768.063718211561</v>
       </c>
       <c r="P35" t="n">
-        <v>2040.229017856245</v>
+        <v>1954.935351266514</v>
       </c>
       <c r="Q35" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R35" t="n">
         <v>2103.382430196593</v>
@@ -6971,7 +6971,7 @@
         <v>2017.062948356278</v>
       </c>
       <c r="V35" t="n">
-        <v>1880.423844896122</v>
+        <v>1880.423844896121</v>
       </c>
       <c r="W35" t="n">
         <v>1721.565655094515</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>742.0592586727771</v>
+        <v>657.1168414760702</v>
       </c>
       <c r="C36" t="n">
-        <v>569.3061435945942</v>
+        <v>484.3637263978874</v>
       </c>
       <c r="D36" t="n">
-        <v>421.717836953538</v>
+        <v>336.7754197568313</v>
       </c>
       <c r="E36" t="n">
-        <v>264.1083079563928</v>
+        <v>179.165890759686</v>
       </c>
       <c r="F36" t="n">
-        <v>119.1525179730097</v>
+        <v>179.165890759686</v>
       </c>
       <c r="G36" t="n">
-        <v>119.1525179730097</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1525179730097</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="I36" t="n">
         <v>42.06764860393186</v>
@@ -7041,25 +7041,25 @@
         <v>2103.382430196593</v>
       </c>
       <c r="S36" t="n">
-        <v>1938.266810284955</v>
+        <v>1954.056059453653</v>
       </c>
       <c r="T36" t="n">
-        <v>1739.085351874632</v>
+        <v>1754.87460104333</v>
       </c>
       <c r="U36" t="n">
-        <v>1512.178577489291</v>
+        <v>1723.180462109469</v>
       </c>
       <c r="V36" t="n">
-        <v>1406.829084710216</v>
+        <v>1488.929218635069</v>
       </c>
       <c r="W36" t="n">
-        <v>1154.314593043549</v>
+        <v>1236.414726968403</v>
       </c>
       <c r="X36" t="n">
-        <v>947.7876944491267</v>
+        <v>1029.88782837398</v>
       </c>
       <c r="Y36" t="n">
-        <v>742.0592586727771</v>
+        <v>824.1593925976307</v>
       </c>
     </row>
     <row r="37">
@@ -7117,7 +7117,7 @@
         <v>413.7389256939625</v>
       </c>
       <c r="R37" t="n">
-        <v>408.1675615623224</v>
+        <v>413.7389256939625</v>
       </c>
       <c r="S37" t="n">
         <v>383.1443986764839</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1154.410550465316</v>
+        <v>1154.410550465317</v>
       </c>
       <c r="C38" t="n">
-        <v>978.9311700794799</v>
+        <v>978.9311700794801</v>
       </c>
       <c r="D38" t="n">
         <v>813.9370047687387</v>
       </c>
       <c r="E38" t="n">
-        <v>622.1617253158872</v>
+        <v>622.1617253158871</v>
       </c>
       <c r="F38" t="n">
-        <v>405.9664178577293</v>
+        <v>405.9664178577291</v>
       </c>
       <c r="G38" t="n">
-        <v>182.6925525799979</v>
+        <v>182.692552579998</v>
       </c>
       <c r="H38" t="n">
         <v>42.06764860393186</v>
@@ -7178,22 +7178,22 @@
         <v>278.8466488174008</v>
       </c>
       <c r="L38" t="n">
-        <v>759.0401394303385</v>
+        <v>567.7122354243437</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.671056828413</v>
+        <v>987.9412961597773</v>
       </c>
       <c r="N38" t="n">
-        <v>1422.231839414507</v>
+        <v>1314.502078745871</v>
       </c>
       <c r="O38" t="n">
-        <v>1853.357384801292</v>
+        <v>1576.735814205566</v>
       </c>
       <c r="P38" t="n">
-        <v>2040.229017856245</v>
+        <v>1763.60744726052</v>
       </c>
       <c r="Q38" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R38" t="n">
         <v>2103.382430196593</v>
@@ -7208,16 +7208,16 @@
         <v>2017.062948356278</v>
       </c>
       <c r="V38" t="n">
-        <v>1880.423844896121</v>
+        <v>1880.423844896122</v>
       </c>
       <c r="W38" t="n">
         <v>1721.565655094515</v>
       </c>
       <c r="X38" t="n">
-        <v>1542.170614655924</v>
+        <v>1542.170614655925</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.790248338478</v>
+        <v>1346.790248338479</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>842.8928795596787</v>
+        <v>773.6655580182301</v>
       </c>
       <c r="C39" t="n">
-        <v>670.1397644814958</v>
+        <v>600.9124429400472</v>
       </c>
       <c r="D39" t="n">
-        <v>522.5514578404398</v>
+        <v>453.3241362989911</v>
       </c>
       <c r="E39" t="n">
-        <v>364.9419288432945</v>
+        <v>295.7146073018458</v>
       </c>
       <c r="F39" t="n">
-        <v>364.9419288432945</v>
+        <v>150.7588173184626</v>
       </c>
       <c r="G39" t="n">
-        <v>227.8436866875404</v>
+        <v>150.7588173184626</v>
       </c>
       <c r="H39" t="n">
-        <v>119.1525179730097</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="I39" t="n">
         <v>42.06764860393186</v>
@@ -7275,28 +7275,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R39" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="S39" t="n">
-        <v>2026.291430195547</v>
+        <v>2070.604775995813</v>
       </c>
       <c r="T39" t="n">
-        <v>1827.109971785225</v>
+        <v>1871.423317585491</v>
       </c>
       <c r="U39" t="n">
-        <v>1600.203197399884</v>
+        <v>1839.729178651629</v>
       </c>
       <c r="V39" t="n">
-        <v>1365.951953925485</v>
+        <v>1605.477935177229</v>
       </c>
       <c r="W39" t="n">
-        <v>1308.650097710297</v>
+        <v>1352.963443510563</v>
       </c>
       <c r="X39" t="n">
-        <v>1102.123199115875</v>
+        <v>1146.43654491614</v>
       </c>
       <c r="Y39" t="n">
-        <v>1009.935430681239</v>
+        <v>940.7081091397905</v>
       </c>
     </row>
     <row r="40">
@@ -7354,25 +7354,25 @@
         <v>413.7389256939625</v>
       </c>
       <c r="R40" t="n">
-        <v>408.1675615623224</v>
+        <v>413.7389256939625</v>
       </c>
       <c r="S40" t="n">
-        <v>383.1443986764839</v>
+        <v>383.1443986764845</v>
       </c>
       <c r="T40" t="n">
-        <v>348.7890153906656</v>
+        <v>348.789015390666</v>
       </c>
       <c r="U40" t="n">
-        <v>255.0736338226936</v>
+        <v>255.073633822694</v>
       </c>
       <c r="V40" t="n">
-        <v>194.795005570194</v>
+        <v>194.7950055701942</v>
       </c>
       <c r="W40" t="n">
-        <v>101.0252401252939</v>
+        <v>101.0252401252941</v>
       </c>
       <c r="X40" t="n">
-        <v>67.81326958454167</v>
+        <v>67.81326958454176</v>
       </c>
       <c r="Y40" t="n">
         <v>42.06764860393186</v>
@@ -7388,16 +7388,16 @@
         <v>1154.410550465317</v>
       </c>
       <c r="C41" t="n">
-        <v>978.9311700794806</v>
+        <v>978.9311700794805</v>
       </c>
       <c r="D41" t="n">
-        <v>813.9370047687394</v>
+        <v>813.9370047687391</v>
       </c>
       <c r="E41" t="n">
-        <v>622.161725315888</v>
+        <v>622.1617253158876</v>
       </c>
       <c r="F41" t="n">
-        <v>405.9664178577301</v>
+        <v>405.9664178577296</v>
       </c>
       <c r="G41" t="n">
         <v>182.6925525799979</v>
@@ -7418,16 +7418,16 @@
         <v>567.7122354243437</v>
       </c>
       <c r="M41" t="n">
-        <v>1073.234962749508</v>
+        <v>904.3431528224179</v>
       </c>
       <c r="N41" t="n">
-        <v>1399.795745335602</v>
+        <v>1230.903935408512</v>
       </c>
       <c r="O41" t="n">
         <v>1662.029480795297</v>
       </c>
       <c r="P41" t="n">
-        <v>1848.901113850251</v>
+        <v>2040.229017856245</v>
       </c>
       <c r="Q41" t="n">
         <v>2103.382430196593</v>
@@ -7439,7 +7439,7 @@
         <v>2103.382430196593</v>
       </c>
       <c r="T41" t="n">
-        <v>2075.823558563377</v>
+        <v>2075.823558563376</v>
       </c>
       <c r="U41" t="n">
         <v>2017.062948356278</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>836.5402277588512</v>
+        <v>564.2365923063259</v>
       </c>
       <c r="C42" t="n">
-        <v>663.7871126806683</v>
+        <v>391.483477228143</v>
       </c>
       <c r="D42" t="n">
-        <v>558.8160791092922</v>
+        <v>243.8951705870869</v>
       </c>
       <c r="E42" t="n">
-        <v>401.2065501121469</v>
+        <v>243.8951705870869</v>
       </c>
       <c r="F42" t="n">
-        <v>256.2507601287638</v>
+        <v>98.93938060370377</v>
       </c>
       <c r="G42" t="n">
-        <v>119.1525179730097</v>
+        <v>98.93938060370377</v>
       </c>
       <c r="H42" t="n">
-        <v>119.1525179730097</v>
+        <v>98.93938060370377</v>
       </c>
       <c r="I42" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="J42" t="n">
-        <v>77.14218050990738</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="K42" t="n">
-        <v>263.6957553587489</v>
+        <v>228.6212234527734</v>
       </c>
       <c r="L42" t="n">
-        <v>575.3896658472795</v>
+        <v>533.20803126779</v>
       </c>
       <c r="M42" t="n">
-        <v>991.9219518101414</v>
+        <v>949.740317230652</v>
       </c>
       <c r="N42" t="n">
-        <v>1434.877339955373</v>
+        <v>1392.695705375883</v>
       </c>
       <c r="O42" t="n">
         <v>1730.285328476234</v>
@@ -7512,28 +7512,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R42" t="n">
-        <v>2103.382430196593</v>
+        <v>2026.291430195547</v>
       </c>
       <c r="S42" t="n">
-        <v>1938.266810284955</v>
+        <v>1861.175810283909</v>
       </c>
       <c r="T42" t="n">
-        <v>1739.085351874632</v>
+        <v>1857.206987325065</v>
       </c>
       <c r="U42" t="n">
-        <v>1707.39121294077</v>
+        <v>1630.300212939724</v>
       </c>
       <c r="V42" t="n">
-        <v>1473.139969466371</v>
+        <v>1396.048969465325</v>
       </c>
       <c r="W42" t="n">
-        <v>1220.625477799704</v>
+        <v>1143.534477798658</v>
       </c>
       <c r="X42" t="n">
-        <v>1209.311214656761</v>
+        <v>937.0075792042359</v>
       </c>
       <c r="Y42" t="n">
-        <v>1003.582778880412</v>
+        <v>731.2791434278863</v>
       </c>
     </row>
     <row r="43">
@@ -7597,19 +7597,19 @@
         <v>388.7157628081239</v>
       </c>
       <c r="T43" t="n">
-        <v>348.7890153906658</v>
+        <v>354.3603795223055</v>
       </c>
       <c r="U43" t="n">
-        <v>255.0736338226938</v>
+        <v>260.6449979543335</v>
       </c>
       <c r="V43" t="n">
-        <v>194.7950055701941</v>
+        <v>200.3663697018338</v>
       </c>
       <c r="W43" t="n">
-        <v>101.025240125294</v>
+        <v>106.5966042569337</v>
       </c>
       <c r="X43" t="n">
-        <v>67.8132695845417</v>
+        <v>73.38463371618141</v>
       </c>
       <c r="Y43" t="n">
         <v>42.06764860393186</v>
@@ -7625,16 +7625,16 @@
         <v>1154.410550465317</v>
       </c>
       <c r="C44" t="n">
-        <v>978.9311700794807</v>
+        <v>978.9311700794802</v>
       </c>
       <c r="D44" t="n">
-        <v>813.9370047687394</v>
+        <v>813.9370047687388</v>
       </c>
       <c r="E44" t="n">
-        <v>622.1617253158873</v>
+        <v>622.1617253158872</v>
       </c>
       <c r="F44" t="n">
-        <v>405.9664178577294</v>
+        <v>405.9664178577292</v>
       </c>
       <c r="G44" t="n">
         <v>182.6925525799979</v>
@@ -7643,31 +7643,31 @@
         <v>42.06764860393186</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06764860393186</v>
+        <v>51.33477456178565</v>
       </c>
       <c r="J44" t="n">
-        <v>87.89169267751058</v>
+        <v>97.15881863536438</v>
       </c>
       <c r="K44" t="n">
-        <v>278.8466488174008</v>
+        <v>288.1137747752546</v>
       </c>
       <c r="L44" t="n">
-        <v>743.9757152818461</v>
+        <v>651.3103787617029</v>
       </c>
       <c r="M44" t="n">
-        <v>1264.562866755503</v>
+        <v>987.941296159777</v>
       </c>
       <c r="N44" t="n">
-        <v>1591.123649341597</v>
+        <v>1314.502078745871</v>
       </c>
       <c r="O44" t="n">
-        <v>1853.357384801292</v>
+        <v>1576.735814205566</v>
       </c>
       <c r="P44" t="n">
-        <v>2040.229017856245</v>
+        <v>1954.935351266514</v>
       </c>
       <c r="Q44" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R44" t="n">
         <v>2103.382430196593</v>
@@ -7682,10 +7682,10 @@
         <v>2017.062948356278</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.423844896122</v>
+        <v>1880.423844896121</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.565655094516</v>
+        <v>1721.565655094515</v>
       </c>
       <c r="X44" t="n">
         <v>1542.170614655925</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>705.7946374039248</v>
+        <v>641.3275923073717</v>
       </c>
       <c r="C45" t="n">
-        <v>533.0415223257419</v>
+        <v>468.5744772291889</v>
       </c>
       <c r="D45" t="n">
-        <v>385.4532156846857</v>
+        <v>320.9861705881327</v>
       </c>
       <c r="E45" t="n">
-        <v>227.8436866875404</v>
+        <v>320.9861705881327</v>
       </c>
       <c r="F45" t="n">
-        <v>227.8436866875404</v>
+        <v>176.0303806047496</v>
       </c>
       <c r="G45" t="n">
-        <v>227.8436866875404</v>
+        <v>176.0303806047496</v>
       </c>
       <c r="H45" t="n">
         <v>119.1525179730097</v>
@@ -7725,19 +7725,19 @@
         <v>42.06764860393186</v>
       </c>
       <c r="J45" t="n">
-        <v>77.14218050990736</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="K45" t="n">
-        <v>263.6957553587488</v>
+        <v>228.6212234527734</v>
       </c>
       <c r="L45" t="n">
-        <v>575.3896658472794</v>
+        <v>540.315133941304</v>
       </c>
       <c r="M45" t="n">
-        <v>991.9219518101413</v>
+        <v>949.740317230652</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.695705375884</v>
+        <v>1392.695705375883</v>
       </c>
       <c r="O45" t="n">
         <v>1730.285328476234</v>
@@ -7749,28 +7749,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R45" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="S45" t="n">
-        <v>1861.175810283909</v>
+        <v>1938.266810284955</v>
       </c>
       <c r="T45" t="n">
-        <v>1803.552396971185</v>
+        <v>1739.085351874632</v>
       </c>
       <c r="U45" t="n">
-        <v>1576.645622585844</v>
+        <v>1707.39121294077</v>
       </c>
       <c r="V45" t="n">
-        <v>1537.607014562924</v>
+        <v>1473.139969466371</v>
       </c>
       <c r="W45" t="n">
-        <v>1285.092522896257</v>
+        <v>1220.625477799704</v>
       </c>
       <c r="X45" t="n">
-        <v>1078.565624301835</v>
+        <v>1014.098579205282</v>
       </c>
       <c r="Y45" t="n">
-        <v>872.8371885254852</v>
+        <v>808.3701434289321</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="C46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="D46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="E46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="F46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="G46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="H46" t="n">
         <v>42.06764860393186</v>
@@ -7807,49 +7807,49 @@
         <v>42.06764860393186</v>
       </c>
       <c r="K46" t="n">
-        <v>55.9791625926308</v>
+        <v>55.97916259263082</v>
       </c>
       <c r="L46" t="n">
-        <v>129.5847260679708</v>
+        <v>129.5847260679709</v>
       </c>
       <c r="M46" t="n">
-        <v>217.7843721135559</v>
+        <v>217.784372113556</v>
       </c>
       <c r="N46" t="n">
-        <v>309.0280896069195</v>
+        <v>309.0280896069197</v>
       </c>
       <c r="O46" t="n">
-        <v>377.9698343802399</v>
+        <v>377.9698343802401</v>
       </c>
       <c r="P46" t="n">
-        <v>413.7389256939624</v>
+        <v>413.7389256939626</v>
       </c>
       <c r="Q46" t="n">
-        <v>413.7389256939624</v>
+        <v>413.7389256939626</v>
       </c>
       <c r="R46" t="n">
-        <v>413.7389256939624</v>
+        <v>413.7389256939626</v>
       </c>
       <c r="S46" t="n">
-        <v>388.7157628081238</v>
+        <v>388.715762808124</v>
       </c>
       <c r="T46" t="n">
-        <v>354.3603795223054</v>
+        <v>348.7890153906659</v>
       </c>
       <c r="U46" t="n">
-        <v>260.6449979543335</v>
+        <v>255.0736338226939</v>
       </c>
       <c r="V46" t="n">
-        <v>200.3663697018338</v>
+        <v>194.7950055701941</v>
       </c>
       <c r="W46" t="n">
-        <v>106.5966042569337</v>
+        <v>101.0252401252941</v>
       </c>
       <c r="X46" t="n">
-        <v>73.38463371618141</v>
+        <v>67.81326958454173</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.63901273557158</v>
+        <v>42.06764860393186</v>
       </c>
     </row>
   </sheetData>
@@ -8693,19 +8693,19 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>343.403151438472</v>
+        <v>142.5842423173746</v>
       </c>
       <c r="M11" t="n">
-        <v>127.4628451375216</v>
+        <v>293.875744588423</v>
       </c>
       <c r="N11" t="n">
-        <v>279.3346406767122</v>
+        <v>325.8003341599709</v>
       </c>
       <c r="O11" t="n">
-        <v>331.9685365639541</v>
+        <v>131.1496274428567</v>
       </c>
       <c r="P11" t="n">
-        <v>145.911431190308</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>157.0162646899898</v>
@@ -8766,28 +8766,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>95.70585664697924</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>86.60589210031262</v>
       </c>
       <c r="L12" t="n">
-        <v>271.6505344098964</v>
+        <v>70.83162528879902</v>
       </c>
       <c r="M12" t="n">
-        <v>63.5935835092304</v>
+        <v>264.4124926303276</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9052934432099</v>
+        <v>243.7913981251857</v>
       </c>
       <c r="O12" t="n">
-        <v>68.61719275451534</v>
+        <v>269.4361018756126</v>
       </c>
       <c r="P12" t="n">
-        <v>123.9926684963959</v>
+        <v>274.9303967023361</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608458</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8930,22 +8930,22 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>343.403151438472</v>
+        <v>343.4031514384719</v>
       </c>
       <c r="M14" t="n">
-        <v>328.2817542586189</v>
+        <v>328.2817542586188</v>
       </c>
       <c r="N14" t="n">
-        <v>124.9814250388737</v>
+        <v>215.5433150804009</v>
       </c>
       <c r="O14" t="n">
         <v>131.1496274428567</v>
       </c>
       <c r="P14" t="n">
-        <v>300.2646468281464</v>
+        <v>145.911431190308</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.0162646899898</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9006,22 +9006,22 @@
         <v>95.70585664697924</v>
       </c>
       <c r="K15" t="n">
-        <v>86.60589210031264</v>
+        <v>86.60589210031262</v>
       </c>
       <c r="L15" t="n">
-        <v>271.6505344098964</v>
+        <v>70.83162528879902</v>
       </c>
       <c r="M15" t="n">
-        <v>264.4124926303277</v>
+        <v>136.522629803105</v>
       </c>
       <c r="N15" t="n">
-        <v>51.08638432211256</v>
+        <v>251.9052934432098</v>
       </c>
       <c r="O15" t="n">
-        <v>269.4361018756127</v>
+        <v>269.4361018756126</v>
       </c>
       <c r="P15" t="n">
-        <v>147.0405338751137</v>
+        <v>274.9303967023361</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9167,13 +9167,13 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>245.2058161719655</v>
+        <v>343.4031514384719</v>
       </c>
       <c r="M17" t="n">
-        <v>127.4628451375216</v>
+        <v>127.4628451375215</v>
       </c>
       <c r="N17" t="n">
-        <v>325.800334159971</v>
+        <v>291.3943244897751</v>
       </c>
       <c r="O17" t="n">
         <v>131.1496274428567</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863009</v>
+        <v>157.0162646899898</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9243,22 +9243,22 @@
         <v>95.70585664697924</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>86.60589210031262</v>
       </c>
       <c r="L18" t="n">
-        <v>271.6505344098964</v>
+        <v>70.83162528879902</v>
       </c>
       <c r="M18" t="n">
-        <v>63.5935835092304</v>
+        <v>264.4124926303276</v>
       </c>
       <c r="N18" t="n">
-        <v>55.35344373241659</v>
+        <v>251.9052934432098</v>
       </c>
       <c r="O18" t="n">
-        <v>269.4361018756127</v>
+        <v>269.4361018756126</v>
       </c>
       <c r="P18" t="n">
-        <v>274.9303967023363</v>
+        <v>266.8165013843119</v>
       </c>
       <c r="Q18" t="n">
         <v>98.70441173608458</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>129.5735665733217</v>
       </c>
       <c r="K20" t="n">
-        <v>238.9138938075048</v>
+        <v>144.2274349933143</v>
       </c>
       <c r="L20" t="n">
-        <v>142.5842423173747</v>
+        <v>142.5842423173746</v>
       </c>
       <c r="M20" t="n">
-        <v>127.4628451375216</v>
+        <v>268.4362171573468</v>
       </c>
       <c r="N20" t="n">
-        <v>325.800334159971</v>
+        <v>325.8003341599709</v>
       </c>
       <c r="O20" t="n">
-        <v>331.9685365639541</v>
+        <v>331.968536563954</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
@@ -9477,25 +9477,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>95.70585664697924</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>86.60589210031264</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>263.5366390918722</v>
+        <v>271.6505344098963</v>
       </c>
       <c r="M21" t="n">
-        <v>264.4124926303277</v>
+        <v>233.2507319335857</v>
       </c>
       <c r="N21" t="n">
-        <v>251.90529344321</v>
+        <v>251.9052934432098</v>
       </c>
       <c r="O21" t="n">
-        <v>68.61719275451534</v>
+        <v>68.61719275451533</v>
       </c>
       <c r="P21" t="n">
-        <v>274.9303967023363</v>
+        <v>74.11148758123889</v>
       </c>
       <c r="Q21" t="n">
         <v>98.70441173608458</v>
@@ -9638,25 +9638,25 @@
         <v>129.5735665733217</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>285.2008070131396</v>
       </c>
       <c r="L23" t="n">
-        <v>343.4031514384722</v>
+        <v>343.4031514384719</v>
       </c>
       <c r="M23" t="n">
-        <v>328.2817542586191</v>
+        <v>127.4628451375215</v>
       </c>
       <c r="N23" t="n">
         <v>124.9814250388737</v>
       </c>
       <c r="O23" t="n">
-        <v>143.0305309782965</v>
+        <v>331.968536563954</v>
       </c>
       <c r="P23" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.0162646899898</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,25 +9714,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>95.70585664697924</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>156.1416263110023</v>
+        <v>271.6505344098963</v>
       </c>
       <c r="M24" t="n">
-        <v>264.4124926303278</v>
+        <v>113.4747644243872</v>
       </c>
       <c r="N24" t="n">
-        <v>51.08638432211256</v>
+        <v>51.08638432211255</v>
       </c>
       <c r="O24" t="n">
-        <v>269.4361018756128</v>
+        <v>68.61719275451533</v>
       </c>
       <c r="P24" t="n">
-        <v>74.1114875812389</v>
+        <v>274.9303967023361</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -11136,13 +11136,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>95.70585664697921</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>385.6739591155975</v>
+        <v>378.4950675261895</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
@@ -11151,7 +11151,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>367.0091003513447</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>95.7058566469792</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11382,10 +11382,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332662999999</v>
+        <v>477.1543747105918</v>
       </c>
       <c r="N45" t="n">
-        <v>455.9083576208421</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.6219123337314</v>
+        <v>203.6219123337313</v>
       </c>
       <c r="C11" t="n">
         <v>186.8905980212789</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5102350969347</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.204628976526408</v>
+        <v>2.204628976526465</v>
       </c>
       <c r="F11" t="n">
-        <v>108.2450860229763</v>
+        <v>227.1993658228771</v>
       </c>
       <c r="G11" t="n">
-        <v>234.207138064255</v>
+        <v>33.38822894315771</v>
       </c>
       <c r="H11" t="n">
-        <v>152.3846663756062</v>
+        <v>152.3846663756061</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.805278148539351</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.16601143930074</v>
       </c>
       <c r="T11" t="n">
-        <v>40.44929435618593</v>
+        <v>30.02642665166666</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.33901554432771</v>
       </c>
       <c r="V11" t="n">
-        <v>148.4387238648557</v>
+        <v>148.4387238648556</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.4356193428908</v>
       </c>
       <c r="X11" t="n">
-        <v>190.7671014735057</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.773664972474762</v>
+        <v>206.5925740935721</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.90662861916971</v>
+        <v>203.6219123337313</v>
       </c>
       <c r="C14" t="n">
-        <v>186.8905980212789</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>176.5102350969347</v>
       </c>
       <c r="E14" t="n">
-        <v>203.0235380976238</v>
+        <v>203.0235380976237</v>
       </c>
       <c r="F14" t="n">
-        <v>26.38045670177979</v>
+        <v>227.1993658228771</v>
       </c>
       <c r="G14" t="n">
-        <v>33.38822894315766</v>
+        <v>33.38822894315771</v>
       </c>
       <c r="H14" t="n">
-        <v>152.3846663756062</v>
+        <v>152.3846663756061</v>
       </c>
       <c r="I14" t="n">
-        <v>3.805278148539411</v>
+        <v>3.805278148539351</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>13.16601143930074</v>
       </c>
       <c r="T14" t="n">
-        <v>40.44929435618592</v>
+        <v>10.02349979780418</v>
       </c>
       <c r="U14" t="n">
-        <v>71.33901554432776</v>
+        <v>71.33901554432771</v>
       </c>
       <c r="V14" t="n">
-        <v>148.4387238648557</v>
+        <v>148.4387238648556</v>
       </c>
       <c r="W14" t="n">
-        <v>170.4356193428909</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>190.7671014735057</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.773664972474762</v>
+        <v>206.5925740935721</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.055333763768431e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872880.9215216471</v>
+        <v>872880.9215216469</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996914.0417723536</v>
+        <v>996914.0417723535</v>
       </c>
     </row>
     <row r="8">
@@ -26317,31 +26317,31 @@
         <v>548205.554985125</v>
       </c>
       <c r="D2" t="n">
-        <v>548205.5549851251</v>
+        <v>548205.5549851252</v>
       </c>
       <c r="E2" t="n">
-        <v>471514.3392623129</v>
+        <v>471514.3392623131</v>
       </c>
       <c r="F2" t="n">
-        <v>471514.3392623127</v>
+        <v>471514.339262313</v>
       </c>
       <c r="G2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.6008150821</v>
       </c>
       <c r="H2" t="n">
         <v>549395.6008150821</v>
       </c>
       <c r="I2" t="n">
+        <v>549395.6008150821</v>
+      </c>
+      <c r="J2" t="n">
+        <v>549395.6008150822</v>
+      </c>
+      <c r="K2" t="n">
+        <v>549395.6008150819</v>
+      </c>
+      <c r="L2" t="n">
         <v>549395.6008150823</v>
-      </c>
-      <c r="J2" t="n">
-        <v>549395.6008150821</v>
-      </c>
-      <c r="K2" t="n">
-        <v>549395.600815082</v>
-      </c>
-      <c r="L2" t="n">
-        <v>549395.6008150826</v>
       </c>
       <c r="M2" t="n">
         <v>549395.6008150826</v>
@@ -26350,10 +26350,10 @@
         <v>549395.6008150826</v>
       </c>
       <c r="O2" t="n">
-        <v>549395.6008150824</v>
+        <v>549395.6008150829</v>
       </c>
       <c r="P2" t="n">
-        <v>549395.6008150826</v>
+        <v>549395.6008150823</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314576.7352757244</v>
+        <v>314576.7352757245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154075.479952801</v>
+        <v>154075.4799528011</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96053.34182327101</v>
+        <v>96053.34182327092</v>
       </c>
       <c r="M3" t="n">
-        <v>42063.93364308888</v>
+        <v>42063.93364308892</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16491.1318112117</v>
+        <v>16491.13181121179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>448535.4477245784</v>
       </c>
       <c r="E4" t="n">
-        <v>334851.6207644779</v>
+        <v>334851.620764478</v>
       </c>
       <c r="F4" t="n">
-        <v>334851.6207644779</v>
+        <v>334851.620764478</v>
       </c>
       <c r="G4" t="n">
-        <v>400679.2424625542</v>
+        <v>400679.2424625543</v>
       </c>
       <c r="H4" t="n">
-        <v>400679.2424625542</v>
+        <v>400679.2424625543</v>
       </c>
       <c r="I4" t="n">
         <v>400679.2424625542</v>
       </c>
       <c r="J4" t="n">
+        <v>394510.0374381135</v>
+      </c>
+      <c r="K4" t="n">
         <v>394510.0374381136</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>394510.0374381135</v>
       </c>
-      <c r="L4" t="n">
-        <v>394510.0374381136</v>
-      </c>
       <c r="M4" t="n">
-        <v>393636.5646292796</v>
+        <v>393636.5646292797</v>
       </c>
       <c r="N4" t="n">
         <v>393636.5646292797</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30349.63798073435</v>
+        <v>30349.63798073434</v>
       </c>
       <c r="F5" t="n">
-        <v>30349.63798073435</v>
+        <v>30349.63798073434</v>
       </c>
       <c r="G5" t="n">
         <v>40443.52347291006</v>
@@ -26488,10 +26488,10 @@
         <v>40443.52347291006</v>
       </c>
       <c r="I5" t="n">
-        <v>40443.52347291007</v>
+        <v>40443.52347291006</v>
       </c>
       <c r="J5" t="n">
-        <v>59007.56328861209</v>
+        <v>59007.56328861208</v>
       </c>
       <c r="K5" t="n">
         <v>59007.56328861209</v>
@@ -26503,10 +26503,10 @@
         <v>51218.11466085044</v>
       </c>
       <c r="N5" t="n">
-        <v>51218.11466085044</v>
+        <v>51218.11466085042</v>
       </c>
       <c r="O5" t="n">
-        <v>51218.11466085044</v>
+        <v>51218.11466085043</v>
       </c>
       <c r="P5" t="n">
         <v>51218.11466085043</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66042.50726054652</v>
+        <v>66038.09968339854</v>
       </c>
       <c r="C6" t="n">
-        <v>66042.50726054652</v>
+        <v>66038.09968339854</v>
       </c>
       <c r="D6" t="n">
-        <v>66042.50726054664</v>
+        <v>66038.09968339877</v>
       </c>
       <c r="E6" t="n">
-        <v>-208263.6547586238</v>
+        <v>-208552.1038754859</v>
       </c>
       <c r="F6" t="n">
-        <v>106313.0805171004</v>
+        <v>106024.6314002386</v>
       </c>
       <c r="G6" t="n">
-        <v>12219.493056347</v>
+        <v>12219.49305634671</v>
       </c>
       <c r="H6" t="n">
+        <v>108272.8348796177</v>
+      </c>
+      <c r="I6" t="n">
         <v>108272.8348796178</v>
       </c>
-      <c r="I6" t="n">
-        <v>108272.834879618</v>
-      </c>
       <c r="J6" t="n">
-        <v>-58197.47986444461</v>
+        <v>-58197.47986444443</v>
       </c>
       <c r="K6" t="n">
-        <v>95878.00008835635</v>
+        <v>95878.00008835617</v>
       </c>
       <c r="L6" t="n">
         <v>-175.3417349141382</v>
       </c>
       <c r="M6" t="n">
-        <v>62476.98788186361</v>
+        <v>62476.98788186355</v>
       </c>
       <c r="N6" t="n">
-        <v>104540.9215249525</v>
+        <v>104540.9215249526</v>
       </c>
       <c r="O6" t="n">
-        <v>88049.78971374064</v>
+        <v>88049.78971374099</v>
       </c>
       <c r="P6" t="n">
-        <v>104540.9215249525</v>
+        <v>104540.9215249522</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>180.0944976576637</v>
       </c>
       <c r="G2" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="H2" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="I2" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="J2" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="K2" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="L2" t="n">
         <v>140.6805920431034</v>
@@ -26719,7 +26719,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="N2" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="O2" t="n">
         <v>193.2605090969645</v>
@@ -26777,7 +26777,7 @@
         <v>137.5910083756653</v>
       </c>
       <c r="P3" t="n">
-        <v>137.5910083756652</v>
+        <v>137.5910083756654</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="F4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="G4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="H4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="I4" t="n">
-        <v>200.8189091210975</v>
+        <v>200.8189091210973</v>
       </c>
       <c r="J4" t="n">
-        <v>726.6645166702456</v>
+        <v>726.6645166702453</v>
       </c>
       <c r="K4" t="n">
         <v>726.6645166702456</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.61391476401465</v>
+        <v>20.61391476401471</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.0666772790888</v>
+        <v>120.0666772790887</v>
       </c>
       <c r="M2" t="n">
-        <v>52.5799170538611</v>
+        <v>52.57991705386115</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.61391476401462</v>
+        <v>20.61391476401474</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.61391476401465</v>
+        <v>20.61391476401471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
@@ -28175,7 +28175,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -28184,10 +28184,10 @@
         <v>135.7272597341965</v>
       </c>
       <c r="H12" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.31402067538703</v>
+        <v>31.68946594479388</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,10 +28217,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>180.0944976576637</v>
       </c>
       <c r="U12" t="n">
         <v>180.0944976576637</v>
@@ -28229,7 +28229,7 @@
         <v>180.0944976576637</v>
       </c>
       <c r="W12" t="n">
-        <v>53.83441174799731</v>
+        <v>180.0944976576637</v>
       </c>
       <c r="X12" t="n">
         <v>180.0944976576637</v>
@@ -28269,7 +28269,7 @@
         <v>146.2970540809004</v>
       </c>
       <c r="J13" t="n">
-        <v>71.29711915503226</v>
+        <v>71.29711915503225</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28284,13 +28284,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>88.40570307599484</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>88.40570307599432</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.98445761112275</v>
+        <v>58.98445761112274</v>
       </c>
       <c r="R13" t="n">
         <v>162.2349980398472</v>
@@ -28418,7 +28418,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>84.42061333535746</v>
+        <v>97.40792679311789</v>
       </c>
       <c r="H15" t="n">
         <v>107.6042570273855</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.32009000103541</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T15" t="n">
         <v>180.0944976576637</v>
@@ -28469,10 +28469,10 @@
         <v>180.0944976576637</v>
       </c>
       <c r="X15" t="n">
-        <v>180.0944976576637</v>
+        <v>3.642720487381013</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.852242297488658</v>
+        <v>2.852242297488772</v>
       </c>
     </row>
     <row r="16">
@@ -28488,10 +28488,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>180.0944976576637</v>
       </c>
       <c r="E16" t="n">
-        <v>180.0944976576637</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -28503,10 +28503,10 @@
         <v>159.4281046943037</v>
       </c>
       <c r="I16" t="n">
-        <v>146.2970540809004</v>
+        <v>180.0944976576637</v>
       </c>
       <c r="J16" t="n">
-        <v>71.29711915503226</v>
+        <v>71.29711915503225</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28524,13 +28524,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>42.83280593083828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.98445761112275</v>
+        <v>58.98445761112274</v>
       </c>
       <c r="R16" t="n">
-        <v>162.2349980398472</v>
+        <v>173.3013027352416</v>
       </c>
       <c r="S16" t="n">
         <v>180.0944976576637</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="C17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="D17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="E17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="F17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="G17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="H17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="I17" t="n">
         <v>183.8997758062031</v>
@@ -28621,16 +28621,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="W17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="X17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.31402067538703</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>76.32009000103541</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S18" t="n">
         <v>163.4644637125223</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6377066414877</v>
+        <v>29.32707679568412</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -28709,7 +28709,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.321342588028131</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -28737,13 +28737,13 @@
         <v>167.6414739969716</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>159.4281046943037</v>
       </c>
       <c r="I19" t="n">
         <v>146.2970540809004</v>
       </c>
       <c r="J19" t="n">
-        <v>71.29711915503226</v>
+        <v>71.29711915503225</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.98445761112275</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.2349980398472</v>
       </c>
       <c r="S19" t="n">
-        <v>176.8435336603206</v>
+        <v>218.0334403539447</v>
       </c>
       <c r="T19" t="n">
         <v>227.2723385499247</v>
@@ -28779,10 +28779,10 @@
         <v>286.0387368492568</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>144.7851534800292</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>85.27366776631828</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="C20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="D20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="E20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="F20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="G20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="H20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="I20" t="n">
         <v>183.8997758062031</v>
@@ -28858,16 +28858,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="W20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="X20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
     </row>
     <row r="21">
@@ -28883,16 +28883,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H21" t="n">
         <v>107.6042570273855</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>76.32009000103541</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.4644637125223</v>
@@ -28937,13 +28937,13 @@
         <v>224.6377066414877</v>
       </c>
       <c r="V21" t="n">
-        <v>31.08982191855776</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>49.17043762890268</v>
+        <v>68.93752427463701</v>
       </c>
       <c r="X21" t="n">
-        <v>38.80270574310202</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -28968,10 +28968,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71.80293795397125</v>
+        <v>167.6414739969716</v>
       </c>
       <c r="H22" t="n">
         <v>159.4281046943037</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.98445761112275</v>
+        <v>58.98445761112274</v>
       </c>
       <c r="R22" t="n">
         <v>162.2349980398472</v>
       </c>
       <c r="S22" t="n">
-        <v>218.0334403539447</v>
+        <v>67.53501659965139</v>
       </c>
       <c r="T22" t="n">
         <v>227.2723385499247</v>
@@ -29022,7 +29022,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>25.32145081121189</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="C23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="D23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="F23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="G23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="H23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="I23" t="n">
         <v>183.8997758062031</v>
@@ -29095,16 +29095,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="W23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="X23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.1611749367524</v>
+        <v>300.1611749367525</v>
       </c>
     </row>
     <row r="24">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>72.55887147018674</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H24" t="n">
         <v>107.6042570273855</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.32009000103541</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S24" t="n">
         <v>163.4644637125223</v>
@@ -29171,10 +29171,10 @@
         <v>197.1896438262193</v>
       </c>
       <c r="U24" t="n">
-        <v>23.81879752039017</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V24" t="n">
-        <v>31.08982191855762</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -29183,7 +29183,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>62.87669572099688</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -29211,13 +29211,13 @@
         <v>167.6414739969716</v>
       </c>
       <c r="H25" t="n">
-        <v>133.7922299057047</v>
+        <v>121.0450913462232</v>
       </c>
       <c r="I25" t="n">
         <v>146.2970540809004</v>
       </c>
       <c r="J25" t="n">
-        <v>71.29711915503226</v>
+        <v>71.29711915503225</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.98445761112275</v>
+        <v>58.98445761112274</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="D26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="E26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="F26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="G26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="H26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="I26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431012</v>
       </c>
       <c r="K26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="L26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="M26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="N26" t="n">
-        <v>140.6805920431029</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="O26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="P26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="R26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="S26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="T26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="U26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="V26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="W26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="X26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Y26" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29360,13 +29360,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.154279155225566</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>77.46811350619997</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>140.6805920431035</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="D28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="E28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="F28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="G28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="H28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="I28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="J28" t="n">
-        <v>71.29711915503226</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="K28" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>110.1279288295773</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="O28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>99.72891355262777</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.98445761112275</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="R28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="S28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="T28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="U28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="V28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="W28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="X28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="D29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="E29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="F29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="G29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="H29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="I29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="J29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="K29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="L29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="M29" t="n">
-        <v>140.6805920431029</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="N29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="O29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="P29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Q29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431026</v>
       </c>
       <c r="R29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="S29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="T29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="U29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="V29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="W29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="X29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,16 +29600,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>8.15427915522568</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.31402067538703</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.154092830813056</v>
       </c>
       <c r="V30" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="C31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="E31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="F31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="G31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="H31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="I31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="J31" t="n">
-        <v>71.29711915503226</v>
+        <v>99.72891355262763</v>
       </c>
       <c r="K31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="L31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="M31" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>28.43179439759651</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="R31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="S31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="T31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="U31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="V31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="W31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="X31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.6805920431034</v>
+        <v>140.6805920431035</v>
       </c>
     </row>
     <row r="32">
@@ -29834,58 +29834,58 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8.154279155225311</v>
+      </c>
+      <c r="S33" t="n">
         <v>140.6805920431034</v>
       </c>
-      <c r="F33" t="n">
+      <c r="T33" t="n">
         <v>140.6805920431034</v>
       </c>
-      <c r="G33" t="n">
-        <v>135.7272597341965</v>
-      </c>
-      <c r="H33" t="n">
-        <v>107.6042570273855</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>46.18394647985031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,13 +29928,13 @@
         <v>140.6805920431034</v>
       </c>
       <c r="J34" t="n">
-        <v>71.29711915503226</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K34" t="n">
-        <v>28.43179439759651</v>
+        <v>99.7289135526301</v>
       </c>
       <c r="L34" t="n">
-        <v>140.6805920431034</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30007,31 +30007,31 @@
         <v>183.8997758062031</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>84.4425690276355</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>193.2605090969645</v>
-      </c>
-      <c r="M35" t="n">
-        <v>170.5977878051416</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>107.1052903194584</v>
       </c>
       <c r="S35" t="n">
         <v>193.2605090969645</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,16 +30113,16 @@
         <v>76.32009000103538</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>15.63135667701115</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="V36" t="n">
-        <v>127.6127331883708</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30189,10 +30189,10 @@
         <v>58.98445761112272</v>
       </c>
       <c r="R37" t="n">
-        <v>156.7193475495235</v>
+        <v>162.2349980398472</v>
       </c>
       <c r="S37" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066408</v>
       </c>
       <c r="T37" t="n">
         <v>193.2605090969645</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="C38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="D38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="E38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="F38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="G38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="H38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="I38" t="n">
         <v>183.8997758062031</v>
@@ -30250,46 +30250,46 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>84.44256902763573</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>170.5977878051416</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1052903194584</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="S38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="T38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="U38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="V38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="W38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="X38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S39" t="n">
-        <v>163.4644637125223</v>
+        <v>131.01458605375</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>112.4052606682968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30426,28 +30426,28 @@
         <v>58.98445761112272</v>
       </c>
       <c r="R40" t="n">
-        <v>156.7193475495235</v>
+        <v>162.2349980398472</v>
       </c>
       <c r="S40" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066414</v>
       </c>
       <c r="T40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="U40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="V40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="W40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="X40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969644</v>
       </c>
     </row>
     <row r="41">
@@ -30490,19 +30490,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>170.5977878051418</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>170.5977878051414</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>107.1052903194584</v>
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>42.19110033898323</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H42" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.01100599561283</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="U42" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="T43" t="n">
-        <v>187.7448586066411</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="U43" t="n">
         <v>193.2605090969645</v>
@@ -30684,7 +30684,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066412</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="I44" t="n">
-        <v>183.8997758062031</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,10 +30724,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>178.0439190479822</v>
+        <v>75.08183573687398</v>
       </c>
       <c r="M44" t="n">
-        <v>185.814377854124</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1052903194584</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="S44" t="n">
         <v>193.2605090969645</v>
@@ -30782,16 +30782,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.29517302196293</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.32009000103537</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.1424646466229</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>167.6414739969716</v>
       </c>
       <c r="H46" t="n">
-        <v>153.9124542039804</v>
+        <v>159.4281046943037</v>
       </c>
       <c r="I46" t="n">
         <v>146.2970540809003</v>
       </c>
       <c r="J46" t="n">
-        <v>71.29711915503225</v>
+        <v>71.29711915503222</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.98445761112272</v>
+        <v>58.98445761112271</v>
       </c>
       <c r="R46" t="n">
         <v>162.2349980398472</v>
@@ -30906,7 +30906,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="T46" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066411</v>
       </c>
       <c r="U46" t="n">
         <v>193.2605090969645</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H11" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I11" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J11" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K11" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L11" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M11" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N11" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O11" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P11" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R11" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S11" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T11" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H12" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I12" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J12" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K12" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L12" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M12" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N12" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O12" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P12" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R12" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S12" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T12" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H13" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I13" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J13" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K13" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L13" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M13" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N13" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O13" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P13" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q13" t="n">
         <v>20.77624226472543</v>
@@ -31944,13 +31944,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S13" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T13" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H14" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I14" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J14" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K14" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L14" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M14" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N14" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O14" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P14" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R14" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S14" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T14" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H15" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I15" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J15" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K15" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L15" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M15" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N15" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O15" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P15" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R15" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S15" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T15" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H16" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I16" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J16" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K16" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L16" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M16" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N16" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O16" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P16" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q16" t="n">
         <v>20.77624226472543</v>
@@ -32181,13 +32181,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S16" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T16" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H17" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I17" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J17" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K17" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L17" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M17" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N17" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O17" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P17" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R17" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S17" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T17" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H18" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I18" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J18" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K18" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L18" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M18" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N18" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O18" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P18" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R18" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S18" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T18" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H19" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I19" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J19" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K19" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L19" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M19" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N19" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O19" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P19" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q19" t="n">
         <v>20.77624226472543</v>
@@ -32418,13 +32418,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S19" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T19" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H20" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I20" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J20" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K20" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L20" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M20" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N20" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O20" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P20" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R20" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S20" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T20" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H21" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I21" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J21" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K21" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L21" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M21" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N21" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O21" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P21" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R21" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S21" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T21" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H22" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I22" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J22" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K22" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L22" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M22" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N22" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O22" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P22" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q22" t="n">
         <v>20.77624226472543</v>
@@ -32655,13 +32655,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S22" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T22" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H23" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I23" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J23" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K23" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L23" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M23" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N23" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O23" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P23" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R23" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S23" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T23" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H24" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I24" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J24" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K24" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L24" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M24" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N24" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O24" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P24" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R24" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S24" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T24" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H25" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I25" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J25" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K25" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L25" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M25" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N25" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O25" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P25" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q25" t="n">
         <v>20.77624226472543</v>
@@ -32892,13 +32892,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S25" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T25" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H26" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I26" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J26" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K26" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L26" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M26" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N26" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O26" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P26" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R26" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S26" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T26" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H27" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I27" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J27" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K27" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L27" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M27" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N27" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O27" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P27" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R27" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S27" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T27" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H28" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I28" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J28" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K28" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L28" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M28" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N28" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O28" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P28" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q28" t="n">
         <v>20.77624226472543</v>
@@ -33129,13 +33129,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S28" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T28" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H29" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I29" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J29" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K29" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L29" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M29" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N29" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O29" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P29" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R29" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S29" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T29" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H30" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I30" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J30" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K30" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L30" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M30" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N30" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O30" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P30" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R30" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S30" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T30" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H31" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I31" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J31" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K31" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L31" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M31" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N31" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O31" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P31" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q31" t="n">
         <v>20.77624226472543</v>
@@ -33366,13 +33366,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S31" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T31" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5531296819122211</v>
+        <v>0.5531296819122212</v>
       </c>
       <c r="H32" t="n">
-        <v>5.664739354883536</v>
+        <v>5.664739354883537</v>
       </c>
       <c r="I32" t="n">
-        <v>21.32453206192092</v>
+        <v>21.32453206192093</v>
       </c>
       <c r="J32" t="n">
-        <v>46.94619034019742</v>
+        <v>46.94619034019743</v>
       </c>
       <c r="K32" t="n">
-        <v>70.36016977554175</v>
+        <v>70.36016977554176</v>
       </c>
       <c r="L32" t="n">
-        <v>87.2880122783629</v>
+        <v>87.28801227836293</v>
       </c>
       <c r="M32" t="n">
-        <v>97.12473225906936</v>
+        <v>97.12473225906938</v>
       </c>
       <c r="N32" t="n">
-        <v>98.69631196780247</v>
+        <v>98.69631196780249</v>
       </c>
       <c r="O32" t="n">
-        <v>93.19612869328782</v>
+        <v>93.19612869328783</v>
       </c>
       <c r="P32" t="n">
-        <v>79.54073967107985</v>
+        <v>79.54073967107986</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.7317829375984</v>
+        <v>59.73178293759842</v>
       </c>
       <c r="R32" t="n">
-        <v>34.74553238141859</v>
+        <v>34.7455323814186</v>
       </c>
       <c r="S32" t="n">
         <v>12.60444262657475</v>
       </c>
       <c r="T32" t="n">
-        <v>2.421325182570749</v>
+        <v>2.42132518257075</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04425037455297768</v>
+        <v>0.04425037455297769</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2959504708457702</v>
+        <v>0.2959504708457703</v>
       </c>
       <c r="H33" t="n">
         <v>2.858258494747308</v>
       </c>
       <c r="I33" t="n">
-        <v>10.18952279008463</v>
+        <v>10.18952279008464</v>
       </c>
       <c r="J33" t="n">
         <v>27.96082935302078</v>
       </c>
       <c r="K33" t="n">
-        <v>47.78951089968738</v>
+        <v>47.78951089968739</v>
       </c>
       <c r="L33" t="n">
-        <v>64.25889499657832</v>
+        <v>64.25889499657833</v>
       </c>
       <c r="M33" t="n">
-        <v>74.98709956473746</v>
+        <v>74.98709956473748</v>
       </c>
       <c r="N33" t="n">
-        <v>76.97178495913741</v>
+        <v>76.97178495913742</v>
       </c>
       <c r="O33" t="n">
-        <v>70.41414557881797</v>
+        <v>70.41414557881798</v>
       </c>
       <c r="P33" t="n">
-        <v>56.51355964773309</v>
+        <v>56.5135596477331</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.77781799778639</v>
+        <v>37.7778179977864</v>
       </c>
       <c r="R33" t="n">
-        <v>18.37488976005581</v>
+        <v>18.37488976005582</v>
       </c>
       <c r="S33" t="n">
-        <v>5.497150193122088</v>
+        <v>5.497150193122089</v>
       </c>
       <c r="T33" t="n">
         <v>1.192888082049398</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01947042571353752</v>
+        <v>0.01947042571353753</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2481149331364452</v>
+        <v>0.2481149331364453</v>
       </c>
       <c r="H34" t="n">
         <v>2.205967314613124</v>
       </c>
       <c r="I34" t="n">
-        <v>7.461492716503282</v>
+        <v>7.461492716503284</v>
       </c>
       <c r="J34" t="n">
         <v>17.54172577274668</v>
       </c>
       <c r="K34" t="n">
-        <v>28.82644404985245</v>
+        <v>28.82644404985246</v>
       </c>
       <c r="L34" t="n">
-        <v>36.88792378648569</v>
+        <v>36.8879237864857</v>
       </c>
       <c r="M34" t="n">
-        <v>38.89314356428841</v>
+        <v>38.89314356428842</v>
       </c>
       <c r="N34" t="n">
-        <v>37.96835154077987</v>
+        <v>37.96835154077988</v>
       </c>
       <c r="O34" t="n">
         <v>35.06991800368593</v>
       </c>
       <c r="P34" t="n">
-        <v>30.00837336770242</v>
+        <v>30.00837336770243</v>
       </c>
       <c r="Q34" t="n">
         <v>20.77624226472543</v>
@@ -33603,13 +33603,13 @@
         <v>11.15614962993507</v>
       </c>
       <c r="S34" t="n">
-        <v>4.323966607477867</v>
+        <v>4.323966607477868</v>
       </c>
       <c r="T34" t="n">
         <v>1.060127441582993</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01353354180744248</v>
+        <v>0.01353354180744249</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5531296819122217</v>
+        <v>0.5531296819122221</v>
       </c>
       <c r="H44" t="n">
-        <v>5.664739354883541</v>
+        <v>5.664739354883547</v>
       </c>
       <c r="I44" t="n">
-        <v>21.32453206192094</v>
+        <v>21.32453206192096</v>
       </c>
       <c r="J44" t="n">
-        <v>46.94619034019747</v>
+        <v>46.9461903401975</v>
       </c>
       <c r="K44" t="n">
-        <v>70.36016977554182</v>
+        <v>70.36016977554188</v>
       </c>
       <c r="L44" t="n">
-        <v>87.288012278363</v>
+        <v>87.28801227836307</v>
       </c>
       <c r="M44" t="n">
-        <v>97.12473225906946</v>
+        <v>97.12473225906955</v>
       </c>
       <c r="N44" t="n">
-        <v>98.69631196780257</v>
+        <v>98.69631196780266</v>
       </c>
       <c r="O44" t="n">
-        <v>93.1961286932879</v>
+        <v>93.19612869328799</v>
       </c>
       <c r="P44" t="n">
-        <v>79.54073967107992</v>
+        <v>79.54073967107999</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.73178293759847</v>
+        <v>59.73178293759852</v>
       </c>
       <c r="R44" t="n">
-        <v>34.74553238141863</v>
+        <v>34.74553238141866</v>
       </c>
       <c r="S44" t="n">
-        <v>12.60444262657476</v>
+        <v>12.60444262657477</v>
       </c>
       <c r="T44" t="n">
-        <v>2.421325182570751</v>
+        <v>2.421325182570754</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04425037455297772</v>
+        <v>0.04425037455297776</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2959504708457705</v>
+        <v>0.2959504708457708</v>
       </c>
       <c r="H45" t="n">
-        <v>2.85825849474731</v>
+        <v>2.858258494747313</v>
       </c>
       <c r="I45" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J45" t="n">
-        <v>27.96082935302081</v>
+        <v>27.96082935302083</v>
       </c>
       <c r="K45" t="n">
-        <v>47.78951089968743</v>
+        <v>47.78951089968747</v>
       </c>
       <c r="L45" t="n">
-        <v>64.25889499657838</v>
+        <v>64.25889499657843</v>
       </c>
       <c r="M45" t="n">
-        <v>74.98709956473755</v>
+        <v>74.9870995647376</v>
       </c>
       <c r="N45" t="n">
-        <v>76.97178495913748</v>
+        <v>76.97178495913755</v>
       </c>
       <c r="O45" t="n">
-        <v>70.41414557881804</v>
+        <v>70.41414557881809</v>
       </c>
       <c r="P45" t="n">
-        <v>56.51355964773315</v>
+        <v>56.5135596477332</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.77781799778643</v>
+        <v>37.77781799778646</v>
       </c>
       <c r="R45" t="n">
-        <v>18.37488976005583</v>
+        <v>18.37488976005584</v>
       </c>
       <c r="S45" t="n">
-        <v>5.497150193122094</v>
+        <v>5.497150193122098</v>
       </c>
       <c r="T45" t="n">
-        <v>1.192888082049399</v>
+        <v>1.1928880820494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01947042571353754</v>
+        <v>0.01947042571353756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2481149331364455</v>
+        <v>0.2481149331364457</v>
       </c>
       <c r="H46" t="n">
-        <v>2.205967314613126</v>
+        <v>2.205967314613128</v>
       </c>
       <c r="I46" t="n">
-        <v>7.46149271650329</v>
+        <v>7.461492716503296</v>
       </c>
       <c r="J46" t="n">
-        <v>17.54172577274669</v>
+        <v>17.54172577274671</v>
       </c>
       <c r="K46" t="n">
-        <v>28.82644404985248</v>
+        <v>28.8264440498525</v>
       </c>
       <c r="L46" t="n">
-        <v>36.88792378648573</v>
+        <v>36.88792378648576</v>
       </c>
       <c r="M46" t="n">
-        <v>38.89314356428844</v>
+        <v>38.89314356428848</v>
       </c>
       <c r="N46" t="n">
-        <v>37.96835154077991</v>
+        <v>37.96835154077994</v>
       </c>
       <c r="O46" t="n">
-        <v>35.06991800368596</v>
+        <v>35.06991800368599</v>
       </c>
       <c r="P46" t="n">
-        <v>30.00837336770245</v>
+        <v>30.00837336770248</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.77624226472545</v>
+        <v>20.77624226472547</v>
       </c>
       <c r="R46" t="n">
-        <v>11.15614962993508</v>
+        <v>11.15614962993509</v>
       </c>
       <c r="S46" t="n">
-        <v>4.323966607477871</v>
+        <v>4.323966607477875</v>
       </c>
       <c r="T46" t="n">
-        <v>1.060127441582994</v>
+        <v>1.060127441582995</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0135335418074425</v>
+        <v>0.01353354180744251</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.286913205635</v>
+        <v>46.28691320563501</v>
       </c>
       <c r="K11" t="n">
         <v>192.8837940806971</v>
       </c>
       <c r="L11" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>166.4128994509014</v>
       </c>
       <c r="N11" t="n">
-        <v>154.3532156378385</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="O11" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>188.759225308034</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.42882010704593</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.4379543927691</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="N12" t="n">
-        <v>200.8189091210974</v>
+        <v>192.7050138030731</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="P12" t="n">
-        <v>49.88118091515697</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.7759675091985</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>14.0520343320191</v>
       </c>
       <c r="L13" t="n">
-        <v>74.34905401549497</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M13" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N13" t="n">
-        <v>92.16537120541776</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O13" t="n">
-        <v>158.0438291096518</v>
+        <v>69.63812603365699</v>
       </c>
       <c r="P13" t="n">
-        <v>36.13039526638626</v>
+        <v>124.5360983423806</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.286913205635</v>
+        <v>46.28691320563501</v>
       </c>
       <c r="K14" t="n">
         <v>192.8837940806971</v>
       </c>
       <c r="L14" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="M14" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>90.56189004152719</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>154.3532156378384</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>63.79132559631103</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>200.8189091210974</v>
+        <v>72.92904629387463</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="O15" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="P15" t="n">
-        <v>72.9290462938748</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="Q15" t="n">
         <v>119.7759675091985</v>
@@ -35784,22 +35784,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.08893114314438</v>
       </c>
       <c r="E16" t="n">
-        <v>33.11987348446451</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>12.45302366069206</v>
+        <v>12.45302366069212</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.7974435767634</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,25 +35808,25 @@
         <v>14.0520343320191</v>
       </c>
       <c r="L16" t="n">
-        <v>74.34905401549497</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M16" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N16" t="n">
-        <v>92.16537120541776</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O16" t="n">
         <v>69.63812603365699</v>
       </c>
       <c r="P16" t="n">
-        <v>78.96320119722454</v>
+        <v>36.13039526638627</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.06630469539441</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.286913205635</v>
+        <v>46.28691320563501</v>
       </c>
       <c r="K17" t="n">
         <v>192.8837940806971</v>
       </c>
       <c r="L17" t="n">
-        <v>102.6215738545908</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>200.8189091210974</v>
+        <v>166.4128994509014</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>188.759225308034</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.79132559631102</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.4379543927691</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="N18" t="n">
-        <v>4.267059410304025</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="O18" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="P18" t="n">
-        <v>200.8189091210974</v>
+        <v>192.705013803073</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>14.0520343320191</v>
       </c>
       <c r="L19" t="n">
-        <v>74.34905401549497</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M19" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N19" t="n">
-        <v>92.16537120541776</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O19" t="n">
         <v>69.63812603365699</v>
       </c>
       <c r="P19" t="n">
-        <v>36.13039526638626</v>
+        <v>36.13039526638627</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.286913205635</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>94.6864588141905</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>140.9733720198253</v>
       </c>
       <c r="N20" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="O20" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="P20" t="n">
         <v>188.759225308034</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.79132559631102</v>
+        <v>63.79132559631103</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.42882010704594</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L21" t="n">
-        <v>192.7050138030732</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="M21" t="n">
-        <v>200.8189091210974</v>
+        <v>169.6571484243553</v>
       </c>
       <c r="N21" t="n">
-        <v>200.8189091210974</v>
+        <v>200.8189091210972</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>200.8189091210974</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>14.0520343320191</v>
       </c>
       <c r="L22" t="n">
-        <v>74.34905401549497</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M22" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N22" t="n">
-        <v>92.16537120541776</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O22" t="n">
         <v>69.63812603365699</v>
       </c>
       <c r="P22" t="n">
-        <v>36.13039526638626</v>
+        <v>36.13039526638627</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>192.8837940806971</v>
+        <v>140.9733720198254</v>
       </c>
       <c r="L23" t="n">
-        <v>200.8189091210975</v>
+        <v>200.8189091210973</v>
       </c>
       <c r="M23" t="n">
-        <v>200.8189091210975</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.88090353543977</v>
+        <v>200.8189091210973</v>
       </c>
       <c r="P23" t="n">
         <v>188.759225308034</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>63.79132559631103</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>35.42882010704594</v>
       </c>
       <c r="K24" t="n">
-        <v>188.4379543927691</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L24" t="n">
-        <v>85.31000102220328</v>
+        <v>200.8189091210973</v>
       </c>
       <c r="M24" t="n">
-        <v>200.8189091210975</v>
+        <v>49.88118091515685</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>200.8189091210975</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.8189091210973</v>
       </c>
       <c r="Q24" t="n">
         <v>119.7759675091985</v>
@@ -36519,19 +36519,19 @@
         <v>14.0520343320191</v>
       </c>
       <c r="L25" t="n">
-        <v>74.34905401549497</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M25" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N25" t="n">
-        <v>92.16537120541776</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O25" t="n">
         <v>69.63812603365699</v>
       </c>
       <c r="P25" t="n">
-        <v>36.13039526638626</v>
+        <v>36.13039526638627</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.9675052487384</v>
+        <v>186.9675052487362</v>
       </c>
       <c r="K26" t="n">
         <v>333.5643861238005</v>
@@ -36601,22 +36601,22 @@
         <v>432.4640128581972</v>
       </c>
       <c r="M26" t="n">
-        <v>480.7118217381277</v>
+        <v>480.7118217381278</v>
       </c>
       <c r="N26" t="n">
-        <v>470.5399683926927</v>
+        <v>470.5399683926933</v>
       </c>
       <c r="O26" t="n">
-        <v>405.5631531135018</v>
+        <v>405.5631531135019</v>
       </c>
       <c r="P26" t="n">
-        <v>329.4398173511374</v>
+        <v>329.4398173511375</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.4719176394144</v>
+        <v>204.4719176394145</v>
       </c>
       <c r="R26" t="n">
-        <v>33.57530172364493</v>
+        <v>33.575301723645</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.42882010704593</v>
+        <v>35.42882010704594</v>
       </c>
       <c r="K27" t="n">
-        <v>188.4379543927691</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L27" t="n">
         <v>314.8423338267985</v>
       </c>
       <c r="M27" t="n">
-        <v>420.7396827907695</v>
+        <v>420.7396827907696</v>
       </c>
       <c r="N27" t="n">
-        <v>447.429684995183</v>
+        <v>447.4296849951831</v>
       </c>
       <c r="O27" t="n">
         <v>340.9996192932833</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.38347288807122</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7326263751225</v>
+        <v>14.0520343320191</v>
       </c>
       <c r="L28" t="n">
-        <v>184.4769828450723</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M28" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N28" t="n">
-        <v>232.8459632485212</v>
+        <v>232.8459632485213</v>
       </c>
       <c r="O28" t="n">
-        <v>210.3187180767604</v>
+        <v>210.3187180767605</v>
       </c>
       <c r="P28" t="n">
-        <v>36.13039526638626</v>
+        <v>135.859308819014</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>81.69613443198074</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.9675052487384</v>
+        <v>186.9675052487385</v>
       </c>
       <c r="K29" t="n">
         <v>333.5643861238005</v>
@@ -36838,22 +36838,22 @@
         <v>432.4640128581972</v>
       </c>
       <c r="M29" t="n">
-        <v>480.7118217381272</v>
+        <v>480.7118217381278</v>
       </c>
       <c r="N29" t="n">
         <v>470.5399683926933</v>
       </c>
       <c r="O29" t="n">
-        <v>405.5631531135018</v>
+        <v>405.5631531135019</v>
       </c>
       <c r="P29" t="n">
-        <v>329.4398173511374</v>
+        <v>329.4398173511375</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.4719176394144</v>
+        <v>204.4719176394136</v>
       </c>
       <c r="R29" t="n">
-        <v>33.57530172364493</v>
+        <v>33.575301723645</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.42882010704593</v>
+        <v>35.42882010704594</v>
       </c>
       <c r="K30" t="n">
-        <v>188.4379543927691</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L30" t="n">
         <v>314.8423338267985</v>
       </c>
       <c r="M30" t="n">
-        <v>420.7396827907695</v>
+        <v>420.7396827907696</v>
       </c>
       <c r="N30" t="n">
-        <v>447.429684995183</v>
+        <v>447.4296849951831</v>
       </c>
       <c r="O30" t="n">
         <v>340.9996192932833</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>28.43179439759538</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7326263751225</v>
+        <v>154.7326263751226</v>
       </c>
       <c r="L31" t="n">
-        <v>215.0296460585984</v>
+        <v>215.0296460585985</v>
       </c>
       <c r="M31" t="n">
-        <v>229.7711436043004</v>
+        <v>89.09055156119697</v>
       </c>
       <c r="N31" t="n">
-        <v>120.5971656030143</v>
+        <v>92.16537120541777</v>
       </c>
       <c r="O31" t="n">
         <v>69.63812603365699</v>
       </c>
       <c r="P31" t="n">
-        <v>36.13039526638626</v>
+        <v>176.8109873094897</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.69613443198067</v>
+        <v>81.69613443198074</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.9675052487384</v>
       </c>
       <c r="K32" t="n">
-        <v>333.5643861238005</v>
+        <v>333.5643861238004</v>
       </c>
       <c r="L32" t="n">
         <v>432.4640128581972</v>
@@ -37078,19 +37078,19 @@
         <v>480.7118217381277</v>
       </c>
       <c r="N32" t="n">
-        <v>470.5399683926933</v>
+        <v>470.5399683926931</v>
       </c>
       <c r="O32" t="n">
         <v>405.5631531135018</v>
       </c>
       <c r="P32" t="n">
-        <v>329.4398173511374</v>
+        <v>329.4398173511373</v>
       </c>
       <c r="Q32" t="n">
         <v>204.4719176394144</v>
       </c>
       <c r="R32" t="n">
-        <v>33.57530172364494</v>
+        <v>33.57530172364488</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.42882010704593</v>
+        <v>35.42882010704594</v>
       </c>
       <c r="K33" t="n">
-        <v>188.4379543927691</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L33" t="n">
         <v>314.8423338267985</v>
       </c>
       <c r="M33" t="n">
-        <v>420.7396827907695</v>
+        <v>420.7396827907696</v>
       </c>
       <c r="N33" t="n">
-        <v>447.429684995183</v>
+        <v>447.4296849951831</v>
       </c>
       <c r="O33" t="n">
         <v>340.9996192932833</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>69.38347288807111</v>
       </c>
       <c r="K34" t="n">
-        <v>42.4838287296156</v>
+        <v>113.7809478846492</v>
       </c>
       <c r="L34" t="n">
-        <v>215.0296460585984</v>
+        <v>74.34905401549499</v>
       </c>
       <c r="M34" t="n">
         <v>89.09055156119697</v>
       </c>
       <c r="N34" t="n">
-        <v>232.8459632485212</v>
+        <v>232.8459632485211</v>
       </c>
       <c r="O34" t="n">
-        <v>210.3187180767604</v>
+        <v>210.3187180767603</v>
       </c>
       <c r="P34" t="n">
-        <v>36.13039526638626</v>
+        <v>36.13039526638627</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.69613443198067</v>
+        <v>81.69613443198062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.28691320563507</v>
+        <v>239.5474223025996</v>
       </c>
       <c r="K35" t="n">
-        <v>192.8837940806972</v>
+        <v>277.3263631083327</v>
       </c>
       <c r="L35" t="n">
-        <v>485.0439299120584</v>
+        <v>291.7834208150939</v>
       </c>
       <c r="M35" t="n">
-        <v>510.6290175001661</v>
+        <v>340.0312296950244</v>
       </c>
       <c r="N35" t="n">
         <v>329.85937634959</v>
@@ -37327,7 +37327,7 @@
         <v>63.7913255963111</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>86.15521877750608</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>192.8837940806972</v>
       </c>
       <c r="L38" t="n">
-        <v>485.0439299120584</v>
+        <v>291.7834208150939</v>
       </c>
       <c r="M38" t="n">
-        <v>340.0312296950244</v>
+        <v>424.4737987226601</v>
       </c>
       <c r="N38" t="n">
         <v>329.85937634959</v>
       </c>
       <c r="O38" t="n">
-        <v>435.4803488755402</v>
+        <v>264.8825610703985</v>
       </c>
       <c r="P38" t="n">
         <v>188.7592253080341</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.7913255963111</v>
+        <v>257.0518346932755</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>86.15521877750599</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>291.7834208150939</v>
       </c>
       <c r="M41" t="n">
-        <v>510.6290175001662</v>
+        <v>340.0312296950244</v>
       </c>
       <c r="N41" t="n">
         <v>329.85937634959</v>
       </c>
       <c r="O41" t="n">
-        <v>264.8825610703985</v>
+        <v>435.48034887554</v>
       </c>
       <c r="P41" t="n">
-        <v>188.7592253080341</v>
+        <v>382.0197344049986</v>
       </c>
       <c r="Q41" t="n">
-        <v>257.0518346932756</v>
+        <v>63.7913255963111</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.42882010704596</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>188.4379543927692</v>
       </c>
       <c r="L42" t="n">
-        <v>314.8423338267986</v>
+        <v>307.6634422373905</v>
       </c>
       <c r="M42" t="n">
         <v>420.7396827907696</v>
@@ -37871,7 +37871,7 @@
         <v>447.4296849951832</v>
       </c>
       <c r="O42" t="n">
-        <v>298.3919075968295</v>
+        <v>340.9996192932834</v>
       </c>
       <c r="P42" t="n">
         <v>257.0897918042958</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.360733290761402</v>
       </c>
       <c r="J44" t="n">
-        <v>46.28691320563505</v>
+        <v>46.28691320563509</v>
       </c>
       <c r="K44" t="n">
         <v>192.8837940806972</v>
       </c>
       <c r="L44" t="n">
-        <v>469.8273398630761</v>
+        <v>366.8652565519679</v>
       </c>
       <c r="M44" t="n">
-        <v>525.8456075491483</v>
+        <v>340.0312296950245</v>
       </c>
       <c r="N44" t="n">
-        <v>329.8593763495899</v>
+        <v>329.85937634959</v>
       </c>
       <c r="O44" t="n">
-        <v>264.8825610703985</v>
+        <v>264.8825610703986</v>
       </c>
       <c r="P44" t="n">
-        <v>188.759225308034</v>
+        <v>382.0197344049986</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.79132559631108</v>
+        <v>63.79132559631113</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.15521877750604</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>35.42882010704596</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.4379543927692</v>
+        <v>188.4379543927693</v>
       </c>
       <c r="L45" t="n">
         <v>314.8423338267986</v>
       </c>
       <c r="M45" t="n">
-        <v>420.7396827907696</v>
+        <v>413.5607912013616</v>
       </c>
       <c r="N45" t="n">
-        <v>404.8219732987296</v>
+        <v>447.4296849951832</v>
       </c>
       <c r="O45" t="n">
         <v>340.9996192932834</v>
@@ -38114,7 +38114,7 @@
         <v>257.0897918042958</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.7759675091985</v>
+        <v>119.7759675091986</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>14.05203433201913</v>
+        <v>14.05203433201915</v>
       </c>
       <c r="L46" t="n">
-        <v>74.34905401549501</v>
+        <v>74.34905401549504</v>
       </c>
       <c r="M46" t="n">
-        <v>89.090551561197</v>
+        <v>89.09055156119705</v>
       </c>
       <c r="N46" t="n">
-        <v>92.1653712054178</v>
+        <v>92.16537120541784</v>
       </c>
       <c r="O46" t="n">
-        <v>69.63812603365702</v>
+        <v>69.63812603365704</v>
       </c>
       <c r="P46" t="n">
-        <v>36.13039526638629</v>
+        <v>36.13039526638632</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
